--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -2150,43 +2150,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="41.8671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.9453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.94921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="107.078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.2734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.94921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="50.953125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -557,7 +557,7 @@
 3. Period is current to the date of the usage 4. Use = official 5. Other order as decided by internal business rules.
-useプロパティの選択は、指定された単一の通常の名前があることを保証しなければならず、他の値はニックネーム（別名）、旧名、または他の値を適切に使用します。
+useプロパティの選択は、指定された単一の通常の名前があることを保証しなければならず、他の値はニックネーム（別名）、旧名、または他の値を適切に使用する。
 一般的には、以下を基準にResourceReference.displayで使用する値を選択する。
  1. There is more than 1 name（最低限1つ以上の名前があること）
  2. Use = usual（useプロパティが「usual」であること）
@@ -569,7 +569,7 @@
   </si>
   <si>
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.
-医療従事者が知られている名前。複数ある場合は、従事者が通常知られている名前を表示に使用します。</t>
+医療従事者が知られている名前。複数ある場合は、従事者が通常知られている名前を表示に使用する。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -779,7 +779,7 @@
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
-期間は時間の範囲を指定します。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に与える」）を指定する。
+期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に与える」）を指定する。
 期間は、時間間隔（経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
   </si>
   <si>
@@ -1171,11 +1171,11 @@
   </si>
   <si>
     <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".
-サマリービューを提供する場合（例えば、Observation.value[x]で）、添付ファイルは "Signed Procedure Consent "のような簡単な表示テキストで表現されなければなりません。</t>
+サマリービューを提供する場合（例えば、Observation.value[x]で）、添付ファイルは "Signed Procedure Consent "のような簡単な表示テキストで表現されなければならない。</t>
   </si>
   <si>
     <t>Many EHR systems have the capability to capture an image of patients and personnel. Fits with newer social media usage too.
-多くのEHRシステムは、患者や職員の画像をキャプチャする機能を持っています。新しいソーシャルメディアの利用にも対応しています。</t>
+多くのEHRシステムは、患者や職員の画像をキャプチャする機能を持っている。新しいソーシャルメディアの利用にも対応している。</t>
   </si>
   <si>
     <t>./subjectOf/ObservationEvent[code="photo"]/value</t>
@@ -1303,12 +1303,12 @@
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
-使用のコンテキストは、範囲全体が適用されるか（例：「患者はこの時間範囲で病院の入院患者であった」）、範囲内の1つの値が適用されるか（例：「この2つの時間の間に患者に与える」）を指定します。
-期間は、期間(経過時間の尺度)には使用されません。[Duration](datatypes.html#Duration)を参照のこと。</t>
+使用のコンテキストは、範囲全体が適用されるか（例：「患者はこの時間範囲で病院の入院患者であった」）、範囲内の1つの値が適用されるか（例：「この2つの時間の間に患者に与える」）を指定する。
+期間は、期間(経過時間の尺度)には使用されない。[Duration](datatypes.html#Duration)を参照のこと。</t>
   </si>
   <si>
     <t>Qualifications are often for a limited period of time, and can be revoked.
-資格は期間限定のものが多く、取り消されることもあります。</t>
+資格は期間限定のものが多く、取り消されることもある。</t>
   </si>
   <si>
     <t>.playingEntity.playingRole[classCode=QUAL].effectiveTime</t>
@@ -1332,7 +1332,7 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければなりません。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができます。</t>
+参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければならない。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができる。</t>
   </si>
   <si>
     <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -1199,8 +1199,7 @@
 例えば、医療委員会が発行した医師免許証は、認定された地域内で医療を行うことを開業医に許可するものである。</t>
   </si>
   <si>
-    <t>【JP-CORE】
-麻薬施用者免許番号、または医籍登録番号を格納するためのQualification/Slicing定義。
+    <t>麻薬施用者免許番号、または医籍登録番号を格納するためのQualification/Slicing定義。
 s麻薬施用者免許番号の場合のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.32.1[都道府県番号] を使用する。
 ( 頭に1をつけて末尾3桁で表現する。これは北海道などの場合、都道府県番号は01になるが、OID
 では先頭が0は許可されていないため、頭に1をつけて3桁で表現する)

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -259,8 +259,8 @@
 医療の提供に直接または間接的に関与する者をいう。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -285,13 +285,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
   </si>
   <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -304,16 +304,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -324,13 +324,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -343,19 +343,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
   </si>
   <si>
-    <t>The base language in which the resource is written.</t>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -375,13 +375,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -401,13 +401,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -427,33 +427,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -466,7 +467,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent</t>
+    <t>このエージェントとしての人物の識別子 / An identifier for the person as this agent</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.
@@ -510,7 +511,7 @@
 </t>
   </si>
   <si>
-    <t>Whether this practitioner's record is in active use</t>
+    <t>この開業医の記録が積極的に使用されているかどうか / Whether this practitioner's record is in active use</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use.
@@ -525,7 +526,7 @@
 医療従事者のレコードを誤って作成してしまったとき、使用しないようにマークできるようにする必要がある。</t>
   </si>
   <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>このリソースは、アクティブな要素の値が提供されていない場合、一般にアクティブであると想定されています / This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
     <t>./statusCode</t>
@@ -620,10 +621,10 @@
     <t>Practitioner.telecom.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
   </si>
   <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -635,7 +636,7 @@
     <t>Practitioner.telecom.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -654,16 +655,16 @@
     <t>Practitioner.telecom.system</t>
   </si>
   <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
+    <t>電話|ファックス|メール|ポケットベル|url |SMS |他の / phone | fax | email | pager | url | sms | other</t>
   </si>
   <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+    <t>接触点の通信フォーム - 連絡先を利用するために必要な通信システム。 / Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Telecommunications form for contact point.</t>
+    <t>接触点の通信フォーム。 / Telecommunications form for contact point.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -688,16 +689,16 @@
     <t>Practitioner.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
+    <t>実際の接触点の詳細 / The actual contact point details</t>
   </si>
   <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+    <t>実際の連絡先ポイントの詳細は、指定された通信システム（つまり、電話番号またはメールアドレス）にとって意味のある形式です。 / The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
   </si>
   <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+    <t>電話延長番号などの追加のテキストデータ、または連絡先の使用に関するメモが値に含まれることがあります。 / Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
   </si>
   <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+    <t>厳密に制御された形式ではないレガシー番号をサポートする必要があります。 / Need to support legacy numbers that are not in a tightly controlled format.</t>
   </si>
   <si>
     <t>ContactPoint.value</t>
@@ -715,19 +716,19 @@
     <t>Practitioner.telecom.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+    <t>ホーム|作業|温度|古い|モバイル - この接触点の目的 / home | work | temp | old | mobile - purpose of this contact point</t>
   </si>
   <si>
-    <t>Identifies the purpose for the contact point.</t>
+    <t>接触点の目的を特定します。 / Identifies the purpose for the contact point.</t>
   </si>
   <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+    <t>アプリケーションは、一時的または古いものであると明示的に言わない限り、連絡先が最新であると想定できます。 / Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
   </si>
   <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+    <t>人がこの連絡先を使用する方法を追跡する必要があるため、ユーザーは自分の目的に適したものを選択できます。 / Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>Use of contact point.</t>
+    <t>コンタクトポイントの使用。 / Use of contact point.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
@@ -752,13 +753,13 @@
 </t>
   </si>
   <si>
-    <t>Specify preferred order of use (1 = highest)</t>
+    <t>優先順序を指定する（1 =最高） / Specify preferred order of use (1 = highest)</t>
   </si>
   <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+    <t>連絡先のセットを使用する優先順序を指定します。ランク値が低いコンタクトポイントは、ランク値が高いコンタクトポイントよりも優先されます。 / Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
   </si>
   <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+    <t>ランクは、インスタンスで連絡先が表される順序に必ずしも従うわけではないことに注意してください。 / Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
   </si>
   <si>
     <t>ContactPoint.rank</t>
@@ -771,10 +772,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when the contact point was/is in use</t>
+    <t>接触点が使用されていた時間期間 / Time period when the contact point was/is in use</t>
   </si>
   <si>
-    <t>Time period when the contact point was/is in use.</t>
+    <t>接触点が使用されていた期間/使用されています。 / Time period when the contact point was/is in use.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
@@ -835,22 +836,22 @@
     <t>Practitioner.address.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
+    <t>ホーム|作業|温度|古い|請求 - この住所の目的 / home | work | temp | old | billing - purpose of this address</t>
   </si>
   <si>
-    <t>The purpose of this address.</t>
+    <t>このアドレスの目的。 / The purpose of this address.</t>
   </si>
   <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+    <t>アプリケーションは、一時的または古いものであると明示的に言わない限り、住所が最新であると想定できます。 / Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
   </si>
   <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
+    <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>The use of an address.</t>
+    <t>アドレスの使用。 / The use of an address.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
@@ -868,19 +869,19 @@
     <t>Practitioner.address.type</t>
   </si>
   <si>
-    <t>postal | physical | both</t>
+    <t>郵便|物理|両方 / postal | physical | both</t>
   </si>
   <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+    <t>物理的な住所（アクセスできるもの）と郵送先住所（例：POボックスやアドレスのケア）を区別します。ほとんどのアドレスは両方です。 / Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>住所の定義は、「住所は物理的な場所ではなく、郵便アドレスを記述することを目的としている」と述べています。ただし、多くのアプリケーションは、住所が訪問できる場所であるという二重の目的を持っているかどうか、有効な配達先であるかどうかを追跡し、郵便アドレスは物理的な場所のプロキシとしてよく使用されます（[場所]（場所を参照してください。HTML＃）リソース）。 / The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
   </si>
   <si>
-    <t>The type of an address (physical / postal).</t>
+    <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
@@ -895,16 +896,16 @@
     <t>Practitioner.address.text</t>
   </si>
   <si>
-    <t>Text representation of the address</t>
+    <t>アドレスのテキスト表現 / Text representation of the address</t>
   </si>
   <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+    <t>アドレス全体を指定する必要があるため、例えば郵便ラベルで。これは、特定の部分の代わりに、または特定の部分と同様に提供される場合があります。 / Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
   </si>
   <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+    <t>テキスト表現とパーツの両方を提供できます。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、一部に見つからないテキストにコンテンツが含まれていないことを保証するものとします。 / Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
   </si>
   <si>
-    <t>A renderable, unencoded form.</t>
+    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
     <t>137 Nowhere Street, Erewhon 9132</t>
@@ -922,10 +923,10 @@
     <t>Practitioner.address.line</t>
   </si>
   <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+    <t>ストリート名、番号、方向＆P.O。ボックスなど / Street name, number, direction &amp; P.O. Box etc.</t>
   </si>
   <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+    <t>このコンポーネントには、家番号、アパート番号、ストリート名、通りの方向、P.O。ボックス番号、配信ヒント、および同様のアドレス情報。 / This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
   </si>
   <si>
     <t>137 Nowhere Street</t>
@@ -950,10 +951,10 @@
 </t>
   </si>
   <si>
-    <t>Name of city, town etc.</t>
+    <t>都市、町などの名前。 / Name of city, town etc.</t>
   </si>
   <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+    <t>都市、町、郊外、村、またはその他のコミュニティまたは配達センターの名前。 / The name of the city, town, suburb, village or other community or delivery center.</t>
   </si>
   <si>
     <t>Erewhon</t>
@@ -978,13 +979,13 @@
 </t>
   </si>
   <si>
-    <t>District name (aka county)</t>
+    <t>地区名（別名郡） / District name (aka county)</t>
   </si>
   <si>
-    <t>The name of the administrative area (county).</t>
+    <t>管理エリア（郡）の名前。 / The name of the administrative area (county).</t>
   </si>
   <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+    <t>地区は郡として知られていることもありますが、一部の地域では「郡」は都市（自治体）の代わりに使用されているため、代わりに郡の名前を都市で伝える必要があります。 / District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
   </si>
   <si>
     <t>Madison</t>
@@ -1006,10 +1007,10 @@
 Territory</t>
   </si>
   <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
+    <t>国のサブユニット（略語OK） / Sub-unit of country (abbreviations ok)</t>
   </si>
   <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+    <t>連邦政府が組織された国に限られた主権を持つ国のサブユニット。コードが一般的に使用されている場合（たとえば、2文字の状態コードなど）、コードを使用できます。 / Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1031,10 +1032,10 @@
 </t>
   </si>
   <si>
-    <t>Postal code for area</t>
+    <t>エリアの郵便番号 / Postal code for area</t>
   </si>
   <si>
-    <t>A postal code designating a region defined by the postal service.</t>
+    <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
     <t>9132</t>
@@ -1055,13 +1056,13 @@
     <t>Practitioner.address.country</t>
   </si>
   <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+    <t>国（例えばISO 3166 2または3文字のコードにすることができます） / Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
   </si>
   <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
+    <t>国 - 一般的に理解されるか、一般的に受け入れられている国。 / Country - a nation as commonly understood or generally accepted.</t>
   </si>
   <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+    <t>ISO 3166 3文字コードは、人間の読み取り可能な国名の代わりに使用できます。 / ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -1079,13 +1080,13 @@
     <t>Practitioner.address.period</t>
   </si>
   <si>
-    <t>Time period when address was/is in use</t>
+    <t>アドレスが使用されていた期間 / Time period when address was/is in use</t>
   </si>
   <si>
-    <t>Time period when address was/is in use.</t>
+    <t>アドレスが使用されていた期間。 / Time period when address was/is in use.</t>
   </si>
   <si>
-    <t>Allows addresses to be placed in historical context.</t>
+    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
@@ -1103,7 +1104,7 @@
     <t>Practitioner.gender</t>
   </si>
   <si>
-    <t>male | female | other | unknown</t>
+    <t>男性|女性|その他|わからない / male | female | other | unknown</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the person is considered to have for administration and record keeping purposes.
@@ -1114,7 +1115,7 @@
 正しく相手に対応する必要がある。</t>
   </si>
   <si>
-    <t>The gender of a person used for administrative purposes.</t>
+    <t>管理目的で使用される人の性別。 / The gender of a person used for administrative purposes.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
@@ -1163,7 +1164,7 @@
 </t>
   </si>
   <si>
-    <t>Image of the person</t>
+    <t>人の画像 / Image of the person</t>
   </si>
   <si>
     <t>Image of the person.
@@ -1233,10 +1234,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1246,7 +1248,7 @@
     <t>Practitioner.qualification.identifier</t>
   </si>
   <si>
-    <t>An identifier for this qualification for the practitioner</t>
+    <t>開業医のこの資格の識別子 / An identifier for this qualification for the practitioner</t>
   </si>
   <si>
     <t>An identifier that applies to this person's qualification in this role.
@@ -1267,7 +1269,7 @@
 </t>
   </si>
   <si>
-    <t>Coded representation of the qualification</t>
+    <t>資格のコード化された表現 / Coded representation of the qualification</t>
   </si>
   <si>
     <t>Coded representation of the qualification.
@@ -1281,7 +1283,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Specific qualification the practitioner has to provide a service.</t>
+    <t>特定の資格開業医はサービスを提供する必要があります。 / Specific qualification the practitioner has to provide a service.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
@@ -1293,7 +1295,7 @@
     <t>Practitioner.qualification.period</t>
   </si>
   <si>
-    <t>Period during which the qualification is valid</t>
+    <t>資格が有効な期間 / Period during which the qualification is valid</t>
   </si>
   <si>
     <t>Period during which the qualification is valid.
@@ -1323,7 +1325,7 @@
 </t>
   </si>
   <si>
-    <t>Organization that regulates and issues the qualification</t>
+    <t>資格を規制および発行する組織 / Organization that regulates and issues the qualification</t>
   </si>
   <si>
     <t>Organization that regulates and issues the qualification.
@@ -1340,16 +1342,16 @@
     <t>narcoticPrescriptionLicenseNumber01</t>
   </si>
   <si>
-    <t>Certification, licenses, or training pertaining to the provision of care</t>
+    <t>ケアの提供に関する認定、ライセンス、またはトレーニング / Certification, licenses, or training pertaining to the provision of care</t>
   </si>
   <si>
-    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
+    <t>開業医によるケアの提供に承認またはその他の方法である公式認定、トレーニング、およびライセンス。たとえば、医療委員会によって発行された医療免許は、実務家に証明書の地域内で医学を実践することを許可しています。 / The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
   </si>
   <si>
-    <t>An identifier that applies to this person's qualification in this role.</t>
+    <t>この役割におけるこの人の資格に適用される識別子。 / An identifier that applies to this person's qualification in this role.</t>
   </si>
   <si>
-    <t>Often, specific identities are assigned for the qualification.</t>
+    <t>多くの場合、資格に特定のIDが割り当てられます。 / Often, specific identities are assigned for the qualification.</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.id</t>
@@ -1361,19 +1363,19 @@
     <t>Practitioner.qualification.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
-    <t>The purpose of this identifier.</t>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
   </si>
   <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
   </si>
   <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -1388,22 +1390,22 @@
     <t>Practitioner.qualification.identifier.type</t>
   </si>
   <si>
-    <t>Description of identifier</t>
+    <t>識別子の説明 / Description of identifier</t>
   </si>
   <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -1418,16 +1420,16 @@
     <t>Practitioner.qualification.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
   </si>
   <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.32.101</t>
@@ -1451,13 +1453,13 @@
     <t>Practitioner.qualification.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>一意の値 / The value that is unique</t>
   </si>
   <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -1475,10 +1477,10 @@
     <t>Practitioner.qualification.identifier.period</t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
   </si>
   <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -1493,13 +1495,13 @@
     <t>Practitioner.qualification.identifier.assigner</t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
   </si>
   <si>
-    <t>Organization that issued/manages the identifier.</t>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
   </si>
   <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -1514,16 +1516,16 @@
     <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
-    <t>Coded representation of the qualification.</t>
+    <t>資格のコード化された表現。 / Coded representation of the qualification.</t>
   </si>
   <si>
-    <t>Period during which the qualification is valid.</t>
+    <t>資格が有効な期間。 / Period during which the qualification is valid.</t>
   </si>
   <si>
-    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
+    <t>資格は多くの場合、限られた期間であり、取り消すことができます。 / Qualifications are often for a limited period of time, and can be revoked.</t>
   </si>
   <si>
-    <t>Organization that regulates and issues the qualification.</t>
+    <t>資格を規制および発行する組織。 / Organization that regulates and issues the qualification.</t>
   </si>
   <si>
     <t>narcoticPrescriptionLicenseNumber02</t>
@@ -2171,7 +2173,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.2734375" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -259,8 +259,8 @@
 医療の提供に直接または間接的に関与する者をいう。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -285,13 +285,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+    <t>Logical id of this artifact</t>
   </si>
   <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -304,16 +304,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
+    <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -324,13 +324,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+    <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -343,19 +343,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
+    <t>Language of the resource content</t>
   </si>
   <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+    <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -375,13 +375,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+    <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -401,13 +401,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+    <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -427,34 +427,33 @@
 </t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+    <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -467,7 +466,7 @@
 </t>
   </si>
   <si>
-    <t>このエージェントとしての人物の識別子 / An identifier for the person as this agent</t>
+    <t>An identifier for the person as this agent</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.
@@ -511,7 +510,7 @@
 </t>
   </si>
   <si>
-    <t>この開業医の記録が積極的に使用されているかどうか / Whether this practitioner's record is in active use</t>
+    <t>Whether this practitioner's record is in active use</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use.
@@ -526,7 +525,7 @@
 医療従事者のレコードを誤って作成してしまったとき、使用しないようにマークできるようにする必要がある。</t>
   </si>
   <si>
-    <t>このリソースは、アクティブな要素の値が提供されていない場合、一般にアクティブであると想定されています / This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
     <t>./statusCode</t>
@@ -621,10 +620,10 @@
     <t>Practitioner.telecom.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+    <t>Unique id for inter-element referencing</t>
   </si>
   <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -636,7 +635,7 @@
     <t>Practitioner.telecom.extension</t>
   </si>
   <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -655,16 +654,16 @@
     <t>Practitioner.telecom.system</t>
   </si>
   <si>
-    <t>電話|ファックス|メール|ポケットベル|url |SMS |他の / phone | fax | email | pager | url | sms | other</t>
+    <t>phone | fax | email | pager | url | sms | other</t>
   </si>
   <si>
-    <t>接触点の通信フォーム - 連絡先を利用するために必要な通信システム。 / Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>接触点の通信フォーム。 / Telecommunications form for contact point.</t>
+    <t>Telecommunications form for contact point.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -689,16 +688,16 @@
     <t>Practitioner.telecom.value</t>
   </si>
   <si>
-    <t>実際の接触点の詳細 / The actual contact point details</t>
+    <t>The actual contact point details</t>
   </si>
   <si>
-    <t>実際の連絡先ポイントの詳細は、指定された通信システム（つまり、電話番号またはメールアドレス）にとって意味のある形式です。 / The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
   </si>
   <si>
-    <t>電話延長番号などの追加のテキストデータ、または連絡先の使用に関するメモが値に含まれることがあります。 / Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
   </si>
   <si>
-    <t>厳密に制御された形式ではないレガシー番号をサポートする必要があります。 / Need to support legacy numbers that are not in a tightly controlled format.</t>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
   </si>
   <si>
     <t>ContactPoint.value</t>
@@ -716,19 +715,19 @@
     <t>Practitioner.telecom.use</t>
   </si>
   <si>
-    <t>ホーム|作業|温度|古い|モバイル - この接触点の目的 / home | work | temp | old | mobile - purpose of this contact point</t>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
   </si>
   <si>
-    <t>接触点の目的を特定します。 / Identifies the purpose for the contact point.</t>
+    <t>Identifies the purpose for the contact point.</t>
   </si>
   <si>
-    <t>アプリケーションは、一時的または古いものであると明示的に言わない限り、連絡先が最新であると想定できます。 / Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
   </si>
   <si>
-    <t>人がこの連絡先を使用する方法を追跡する必要があるため、ユーザーは自分の目的に適したものを選択できます。 / Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>コンタクトポイントの使用。 / Use of contact point.</t>
+    <t>Use of contact point.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
@@ -753,13 +752,13 @@
 </t>
   </si>
   <si>
-    <t>優先順序を指定する（1 =最高） / Specify preferred order of use (1 = highest)</t>
+    <t>Specify preferred order of use (1 = highest)</t>
   </si>
   <si>
-    <t>連絡先のセットを使用する優先順序を指定します。ランク値が低いコンタクトポイントは、ランク値が高いコンタクトポイントよりも優先されます。 / Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
   </si>
   <si>
-    <t>ランクは、インスタンスで連絡先が表される順序に必ずしも従うわけではないことに注意してください。 / Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
   </si>
   <si>
     <t>ContactPoint.rank</t>
@@ -772,10 +771,10 @@
 </t>
   </si>
   <si>
-    <t>接触点が使用されていた時間期間 / Time period when the contact point was/is in use</t>
+    <t>Time period when the contact point was/is in use</t>
   </si>
   <si>
-    <t>接触点が使用されていた期間/使用されています。 / Time period when the contact point was/is in use.</t>
+    <t>Time period when the contact point was/is in use.</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
@@ -836,22 +835,22 @@
     <t>Practitioner.address.use</t>
   </si>
   <si>
-    <t>ホーム|作業|温度|古い|請求 - この住所の目的 / home | work | temp | old | billing - purpose of this address</t>
+    <t>home | work | temp | old | billing - purpose of this address</t>
   </si>
   <si>
-    <t>このアドレスの目的。 / The purpose of this address.</t>
+    <t>The purpose of this address.</t>
   </si>
   <si>
-    <t>アプリケーションは、一時的または古いものであると明示的に言わない限り、住所が最新であると想定できます。 / Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
   </si>
   <si>
-    <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>アドレスの使用。 / The use of an address.</t>
+    <t>The use of an address.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
@@ -869,19 +868,19 @@
     <t>Practitioner.address.type</t>
   </si>
   <si>
-    <t>郵便|物理|両方 / postal | physical | both</t>
+    <t>postal | physical | both</t>
   </si>
   <si>
-    <t>物理的な住所（アクセスできるもの）と郵送先住所（例：POボックスやアドレスのケア）を区別します。ほとんどのアドレスは両方です。 / Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>住所の定義は、「住所は物理的な場所ではなく、郵便アドレスを記述することを目的としている」と述べています。ただし、多くのアプリケーションは、住所が訪問できる場所であるという二重の目的を持っているかどうか、有効な配達先であるかどうかを追跡し、郵便アドレスは物理的な場所のプロキシとしてよく使用されます（[場所]（場所を参照してください。HTML＃）リソース）。 / The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
   </si>
   <si>
-    <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
+    <t>The type of an address (physical / postal).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
@@ -896,16 +895,16 @@
     <t>Practitioner.address.text</t>
   </si>
   <si>
-    <t>アドレスのテキスト表現 / Text representation of the address</t>
+    <t>Text representation of the address</t>
   </si>
   <si>
-    <t>アドレス全体を指定する必要があるため、例えば郵便ラベルで。これは、特定の部分の代わりに、または特定の部分と同様に提供される場合があります。 / Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
   </si>
   <si>
-    <t>テキスト表現とパーツの両方を提供できます。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、一部に見つからないテキストにコンテンツが含まれていないことを保証するものとします。 / Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
   </si>
   <si>
-    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
+    <t>A renderable, unencoded form.</t>
   </si>
   <si>
     <t>137 Nowhere Street, Erewhon 9132</t>
@@ -923,10 +922,10 @@
     <t>Practitioner.address.line</t>
   </si>
   <si>
-    <t>ストリート名、番号、方向＆P.O。ボックスなど / Street name, number, direction &amp; P.O. Box etc.</t>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
   </si>
   <si>
-    <t>このコンポーネントには、家番号、アパート番号、ストリート名、通りの方向、P.O。ボックス番号、配信ヒント、および同様のアドレス情報。 / This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
   </si>
   <si>
     <t>137 Nowhere Street</t>
@@ -951,10 +950,10 @@
 </t>
   </si>
   <si>
-    <t>都市、町などの名前。 / Name of city, town etc.</t>
+    <t>Name of city, town etc.</t>
   </si>
   <si>
-    <t>都市、町、郊外、村、またはその他のコミュニティまたは配達センターの名前。 / The name of the city, town, suburb, village or other community or delivery center.</t>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
   </si>
   <si>
     <t>Erewhon</t>
@@ -979,13 +978,13 @@
 </t>
   </si>
   <si>
-    <t>地区名（別名郡） / District name (aka county)</t>
+    <t>District name (aka county)</t>
   </si>
   <si>
-    <t>管理エリア（郡）の名前。 / The name of the administrative area (county).</t>
+    <t>The name of the administrative area (county).</t>
   </si>
   <si>
-    <t>地区は郡として知られていることもありますが、一部の地域では「郡」は都市（自治体）の代わりに使用されているため、代わりに郡の名前を都市で伝える必要があります。 / District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
   </si>
   <si>
     <t>Madison</t>
@@ -1007,10 +1006,10 @@
 Territory</t>
   </si>
   <si>
-    <t>国のサブユニット（略語OK） / Sub-unit of country (abbreviations ok)</t>
+    <t>Sub-unit of country (abbreviations ok)</t>
   </si>
   <si>
-    <t>連邦政府が組織された国に限られた主権を持つ国のサブユニット。コードが一般的に使用されている場合（たとえば、2文字の状態コードなど）、コードを使用できます。 / Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1032,10 +1031,10 @@
 </t>
   </si>
   <si>
-    <t>エリアの郵便番号 / Postal code for area</t>
+    <t>Postal code for area</t>
   </si>
   <si>
-    <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
+    <t>A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
     <t>9132</t>
@@ -1056,13 +1055,13 @@
     <t>Practitioner.address.country</t>
   </si>
   <si>
-    <t>国（例えばISO 3166 2または3文字のコードにすることができます） / Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
   </si>
   <si>
-    <t>国 - 一般的に理解されるか、一般的に受け入れられている国。 / Country - a nation as commonly understood or generally accepted.</t>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
   </si>
   <si>
-    <t>ISO 3166 3文字コードは、人間の読み取り可能な国名の代わりに使用できます。 / ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -1080,13 +1079,13 @@
     <t>Practitioner.address.period</t>
   </si>
   <si>
-    <t>アドレスが使用されていた期間 / Time period when address was/is in use</t>
+    <t>Time period when address was/is in use</t>
   </si>
   <si>
-    <t>アドレスが使用されていた期間。 / Time period when address was/is in use.</t>
+    <t>Time period when address was/is in use.</t>
   </si>
   <si>
-    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
+    <t>Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
@@ -1104,7 +1103,7 @@
     <t>Practitioner.gender</t>
   </si>
   <si>
-    <t>男性|女性|その他|わからない / male | female | other | unknown</t>
+    <t>male | female | other | unknown</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the person is considered to have for administration and record keeping purposes.
@@ -1115,7 +1114,7 @@
 正しく相手に対応する必要がある。</t>
   </si>
   <si>
-    <t>管理目的で使用される人の性別。 / The gender of a person used for administrative purposes.</t>
+    <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
@@ -1164,7 +1163,7 @@
 </t>
   </si>
   <si>
-    <t>人の画像 / Image of the person</t>
+    <t>Image of the person</t>
   </si>
   <si>
     <t>Image of the person.
@@ -1234,11 +1233,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1248,7 +1246,7 @@
     <t>Practitioner.qualification.identifier</t>
   </si>
   <si>
-    <t>開業医のこの資格の識別子 / An identifier for this qualification for the practitioner</t>
+    <t>An identifier for this qualification for the practitioner</t>
   </si>
   <si>
     <t>An identifier that applies to this person's qualification in this role.
@@ -1269,7 +1267,7 @@
 </t>
   </si>
   <si>
-    <t>資格のコード化された表現 / Coded representation of the qualification</t>
+    <t>Coded representation of the qualification</t>
   </si>
   <si>
     <t>Coded representation of the qualification.
@@ -1283,7 +1281,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>特定の資格開業医はサービスを提供する必要があります。 / Specific qualification the practitioner has to provide a service.</t>
+    <t>Specific qualification the practitioner has to provide a service.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
@@ -1295,7 +1293,7 @@
     <t>Practitioner.qualification.period</t>
   </si>
   <si>
-    <t>資格が有効な期間 / Period during which the qualification is valid</t>
+    <t>Period during which the qualification is valid</t>
   </si>
   <si>
     <t>Period during which the qualification is valid.
@@ -1325,7 +1323,7 @@
 </t>
   </si>
   <si>
-    <t>資格を規制および発行する組織 / Organization that regulates and issues the qualification</t>
+    <t>Organization that regulates and issues the qualification</t>
   </si>
   <si>
     <t>Organization that regulates and issues the qualification.
@@ -1342,16 +1340,16 @@
     <t>narcoticPrescriptionLicenseNumber01</t>
   </si>
   <si>
-    <t>ケアの提供に関する認定、ライセンス、またはトレーニング / Certification, licenses, or training pertaining to the provision of care</t>
+    <t>Certification, licenses, or training pertaining to the provision of care</t>
   </si>
   <si>
-    <t>開業医によるケアの提供に承認またはその他の方法である公式認定、トレーニング、およびライセンス。たとえば、医療委員会によって発行された医療免許は、実務家に証明書の地域内で医学を実践することを許可しています。 / The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
+    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
   </si>
   <si>
-    <t>この役割におけるこの人の資格に適用される識別子。 / An identifier that applies to this person's qualification in this role.</t>
+    <t>An identifier that applies to this person's qualification in this role.</t>
   </si>
   <si>
-    <t>多くの場合、資格に特定のIDが割り当てられます。 / Often, specific identities are assigned for the qualification.</t>
+    <t>Often, specific identities are assigned for the qualification.</t>
   </si>
   <si>
     <t>Practitioner.qualification.identifier.id</t>
@@ -1363,19 +1361,19 @@
     <t>Practitioner.qualification.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
-    <t>この識別子の目的。 / The purpose of this identifier.</t>
+    <t>The purpose of this identifier.</t>
   </si>
   <si>
-    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
   </si>
   <si>
-    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -1390,22 +1388,22 @@
     <t>Practitioner.qualification.identifier.type</t>
   </si>
   <si>
-    <t>識別子の説明 / Description of identifier</t>
+    <t>Description of identifier</t>
   </si>
   <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
-    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -1420,16 +1418,16 @@
     <t>Practitioner.qualification.identifier.system</t>
   </si>
   <si>
-    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+    <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+    <t>Identifier.system is always case sensitive.</t>
   </si>
   <si>
-    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.32.101</t>
@@ -1453,13 +1451,13 @@
     <t>Practitioner.qualification.identifier.value</t>
   </si>
   <si>
-    <t>一意の値 / The value that is unique</t>
+    <t>The value that is unique</t>
   </si>
   <si>
-    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -1477,10 +1475,10 @@
     <t>Practitioner.qualification.identifier.period</t>
   </si>
   <si>
-    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+    <t>Time period when id is/was valid for use</t>
   </si>
   <si>
-    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
+    <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -1495,13 +1493,13 @@
     <t>Practitioner.qualification.identifier.assigner</t>
   </si>
   <si>
-    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+    <t>Organization that issued id (may be just text)</t>
   </si>
   <si>
-    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+    <t>Organization that issued/manages the identifier.</t>
   </si>
   <si>
-    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -1516,16 +1514,16 @@
     <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
-    <t>資格のコード化された表現。 / Coded representation of the qualification.</t>
+    <t>Coded representation of the qualification.</t>
   </si>
   <si>
-    <t>資格が有効な期間。 / Period during which the qualification is valid.</t>
+    <t>Period during which the qualification is valid.</t>
   </si>
   <si>
-    <t>資格は多くの場合、限られた期間であり、取り消すことができます。 / Qualifications are often for a limited period of time, and can be revoked.</t>
+    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
   </si>
   <si>
-    <t>資格を規制および発行する組織。 / Organization that regulates and issues the qualification.</t>
+    <t>Organization that regulates and issues the qualification.</t>
   </si>
   <si>
     <t>narcoticPrescriptionLicenseNumber02</t>
@@ -2173,7 +2171,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="145.265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.2734375" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -473,7 +473,7 @@
 ある役割の人に適用される識別子。</t>
   </si>
   <si>
-    <t>【JP_CORE】
+    <t>【JP-Core仕様】
 IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
 Practitioner.identifier.systemには、
 医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号
@@ -517,8 +517,8 @@
 この医療従事者の記録がアクティブに使用されているかどうかを示す。</t>
   </si>
   <si>
-    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.
-医療従事者がある組織で使用されていない場合、別のロールでアクティブになっている可能性があるので、(例えそれらがアクティブであっても)PractitonerRoleに有効期間を終了日でマークしておく必要がある。</t>
+    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitionerRole with an end date (even if they are active) as they may be active in another role.
+医療従事者がある組織で使用されていない場合、別のロールでアクティブになっている可能性があるので、(例えそれらがアクティブであっても)PractitionerRoleに有効期間を終了日でマークしておく必要がある。</t>
   </si>
   <si>
     <t>Need to be able to mark a practitioner record as not to be used because it was created in error.
@@ -1194,7 +1194,7 @@
     <t>Certification, licenses, or training pertaining to the provision of care　ケアの提供に関連する認定、ライセンス、またはトレーニング</t>
   </si>
   <si>
-    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.
+    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certain locality.
 医療従事者によるケアの提供を認可する、あるいは関連する、公式の証明書、トレーニング、免許証等。
 例えば、医療委員会が発行した医師免許証は、認定された地域内で医療を行うことを開業医に許可するものである。</t>
   </si>
@@ -1330,7 +1330,7 @@
 資格を規制し、発行する機関</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければならない。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -473,8 +473,7 @@
 ある役割の人に適用される識別子。</t>
   </si>
   <si>
-    <t>【JP-Core仕様】
-IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
+    <t>【JP-Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
 Practitioner.identifier.systemには、
 医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号
 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -1519,13 +1519,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenceCertificate_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
     &lt;code value="narcotics-practitioner"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalLicenceCertificate_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalLicenseCertificate_VS</t>
   </si>
   <si>
     <t>Period during which the qualification is valid.</t>
@@ -2324,7 +2324,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.0546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.2734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -473,7 +473,7 @@
 ある役割の人に適用される識別子。</t>
   </si>
   <si>
-    <t>【JP-Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
+    <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
 Practitioner.identifier.systemには、
 医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号
 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -1199,7 +1199,7 @@
   </si>
   <si>
     <t>麻薬施用者免許番号、または医籍登録番号を格納するためのQualification/Slicing定義。
-s麻薬施用者免許番号の場合のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.32.1[都道府県番号] を使用する。
+麻薬施用者免許番号の場合のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.32.1[都道府県番号] を使用する。
 ( 頭に1をつけて末尾3桁で表現する。これは北海道などの場合、都道府県番号は01になるが、OID
 では先頭が0は許可されていないため、頭に1をつけて3桁で表現する)
 つまり麻薬施用者免許番号を発行した都道府県ごとにsystemも異なる値となる。

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -1423,7 +1423,7 @@
     <t>Practitioner.qualification.identifier.system</t>
   </si>
   <si>
-    <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)] Detail DescriptionsタグのPractitioner.qualification:narcoticPrescriptionLicenseNumber.identifier.systemの項目を確認すること</t>
+    <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)] 【詳細参照】</t>
   </si>
   <si>
     <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)]</t>
@@ -1964,7 +1964,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="186.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="485">
   <si>
     <t>Property</t>
   </si>
@@ -281,7 +281,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -617,6 +617,10 @@
   </si>
   <si>
     <t>Practitioner.telecom.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3590,13 +3594,13 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3647,7 +3651,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3665,7 +3669,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3676,7 +3680,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3705,7 +3709,7 @@
         <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>135</v>
@@ -3746,19 +3750,19 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3776,7 +3780,7 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3787,7 +3791,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3813,10 +3817,10 @@
         <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3843,13 +3847,13 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3867,7 +3871,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3876,19 +3880,19 @@
         <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3896,7 +3900,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3919,19 +3923,19 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3980,7 +3984,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3995,13 +3999,13 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -4009,7 +4013,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4035,16 +4039,16 @@
         <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -4069,13 +4073,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -4093,7 +4097,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4108,13 +4112,13 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -4122,7 +4126,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4145,16 +4149,16 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4204,7 +4208,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4219,10 +4223,10 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4233,7 +4237,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4256,16 +4260,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4315,7 +4319,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4333,10 +4337,10 @@
         <v>129</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4344,7 +4348,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4367,19 +4371,19 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4428,7 +4432,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4443,13 +4447,13 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4457,7 +4461,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4480,13 +4484,13 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4537,7 +4541,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4555,7 +4559,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4566,7 +4570,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4595,7 +4599,7 @@
         <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>135</v>
@@ -4636,19 +4640,19 @@
         <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4666,7 +4670,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4677,7 +4681,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4703,16 +4707,16 @@
         <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4725,7 +4729,7 @@
         <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>76</v>
@@ -4737,13 +4741,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4761,7 +4765,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4776,13 +4780,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4790,7 +4794,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4816,13 +4820,13 @@
         <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4836,7 +4840,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -4848,13 +4852,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4872,7 +4876,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4887,10 +4891,10 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4901,7 +4905,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4924,19 +4928,19 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4949,7 +4953,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -4985,7 +4989,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5000,10 +5004,10 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -5014,7 +5018,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5037,13 +5041,13 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5058,7 +5062,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -5094,7 +5098,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5109,13 +5113,13 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5123,11 +5127,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5146,13 +5150,13 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5167,7 +5171,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -5203,7 +5207,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5218,13 +5222,13 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5232,11 +5236,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5255,16 +5259,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5278,7 +5282,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -5314,7 +5318,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5329,10 +5333,10 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5343,11 +5347,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5366,13 +5370,13 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5423,7 +5427,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5438,13 +5442,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5452,11 +5456,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5475,13 +5479,13 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5496,7 +5500,7 @@
         <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>76</v>
@@ -5532,7 +5536,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5547,13 +5551,13 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5561,7 +5565,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5584,16 +5588,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5643,7 +5647,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5658,13 +5662,13 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5672,7 +5676,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5695,19 +5699,19 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5720,7 +5724,7 @@
         <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>76</v>
@@ -5756,7 +5760,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5771,13 +5775,13 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5785,7 +5789,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5811,14 +5815,14 @@
         <v>106</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5843,13 +5847,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5867,7 +5871,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5882,13 +5886,13 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5896,7 +5900,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5919,17 +5923,17 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5978,7 +5982,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5993,13 +5997,13 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -6007,7 +6011,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6030,19 +6034,19 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6091,7 +6095,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6109,10 +6113,10 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6120,7 +6124,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6143,16 +6147,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6190,17 +6194,17 @@
         <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6215,13 +6219,13 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -6229,7 +6233,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6252,13 +6256,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6309,7 +6313,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6327,7 +6331,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6338,7 +6342,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6367,7 +6371,7 @@
         <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>135</v>
@@ -6420,7 +6424,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6438,7 +6442,7 @@
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6449,11 +6453,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6475,10 +6479,10 @@
         <v>132</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>135</v>
@@ -6533,7 +6537,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6562,7 +6566,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6588,14 +6592,14 @@
         <v>144</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6644,7 +6648,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6662,7 +6666,7 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6673,7 +6677,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6696,16 +6700,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6731,13 +6735,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6755,7 +6759,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>86</v>
@@ -6773,10 +6777,10 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6784,7 +6788,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6807,19 +6811,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6868,7 +6872,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6886,10 +6890,10 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6897,7 +6901,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6920,16 +6924,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6979,7 +6983,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6997,7 +7001,7 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -7008,10 +7012,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>76</v>
@@ -7021,7 +7025,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>76</v>
@@ -7033,13 +7037,13 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7090,7 +7094,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7105,13 +7109,13 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7119,7 +7123,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7142,13 +7146,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7199,7 +7203,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7217,7 +7221,7 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -7228,7 +7232,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7257,7 +7261,7 @@
         <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>135</v>
@@ -7310,7 +7314,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7328,7 +7332,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7339,11 +7343,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7365,10 +7369,10 @@
         <v>132</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>135</v>
@@ -7423,7 +7427,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7452,7 +7456,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7478,14 +7482,14 @@
         <v>144</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7534,7 +7538,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7552,7 +7556,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7563,7 +7567,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7586,13 +7590,13 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7643,7 +7647,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7661,7 +7665,7 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7672,7 +7676,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7701,7 +7705,7 @@
         <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>135</v>
@@ -7742,19 +7746,19 @@
         <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7772,7 +7776,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7783,7 +7787,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7809,16 +7813,16 @@
         <v>106</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7843,13 +7847,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7867,7 +7871,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7885,7 +7889,7 @@
         <v>129</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7896,7 +7900,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7919,19 +7923,19 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7956,13 +7960,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -7980,7 +7984,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7995,10 +7999,10 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -8009,7 +8013,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8035,16 +8039,16 @@
         <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8057,7 +8061,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8093,7 +8097,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8108,13 +8112,13 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8122,7 +8126,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8145,16 +8149,16 @@
         <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8168,7 +8172,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8204,7 +8208,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8219,13 +8223,13 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8233,7 +8237,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8256,13 +8260,13 @@
         <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8313,7 +8317,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8328,13 +8332,13 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8342,7 +8346,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8365,16 +8369,16 @@
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8424,7 +8428,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8439,13 +8443,13 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8453,7 +8457,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8476,13 +8480,13 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8491,7 +8495,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>76</v>
@@ -8509,11 +8513,11 @@
         <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8531,7 +8535,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>86</v>
@@ -8549,10 +8553,10 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8560,7 +8564,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8583,17 +8587,17 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8642,7 +8646,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8660,10 +8664,10 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8671,7 +8675,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8694,13 +8698,13 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8751,7 +8755,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8769,7 +8773,7 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8780,10 +8784,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>76</v>
@@ -8805,13 +8809,13 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8862,7 +8866,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8877,13 +8881,13 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8891,7 +8895,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8914,13 +8918,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8971,7 +8975,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8989,7 +8993,7 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -9000,7 +9004,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9029,7 +9033,7 @@
         <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>135</v>
@@ -9082,7 +9086,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9100,7 +9104,7 @@
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -9111,11 +9115,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9137,10 +9141,10 @@
         <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>135</v>
@@ -9195,7 +9199,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9224,7 +9228,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9250,14 +9254,14 @@
         <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9306,7 +9310,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9324,7 +9328,7 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9335,7 +9339,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9358,13 +9362,13 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9415,7 +9419,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9433,7 +9437,7 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9444,7 +9448,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9473,7 +9477,7 @@
         <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>135</v>
@@ -9514,19 +9518,19 @@
         <v>76</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9544,7 +9548,7 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9555,7 +9559,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9581,16 +9585,16 @@
         <v>106</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9615,13 +9619,13 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -9639,7 +9643,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9657,7 +9661,7 @@
         <v>129</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9668,7 +9672,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9691,19 +9695,19 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -9728,13 +9732,13 @@
         <v>76</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>76</v>
@@ -9752,7 +9756,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9767,10 +9771,10 @@
         <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9781,7 +9785,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9807,29 +9811,29 @@
         <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>76</v>
@@ -9865,7 +9869,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9880,13 +9884,13 @@
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9894,7 +9898,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9917,16 +9921,16 @@
         <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9940,7 +9944,7 @@
         <v>76</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>76</v>
@@ -9976,7 +9980,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9991,13 +9995,13 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10005,7 +10009,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10028,13 +10032,13 @@
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10085,7 +10089,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10100,13 +10104,13 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10114,7 +10118,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10137,16 +10141,16 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10196,7 +10200,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10211,13 +10215,13 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10225,7 +10229,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10248,13 +10252,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10263,7 +10267,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>76</v>
@@ -10281,11 +10285,11 @@
         <v>76</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10303,7 +10307,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>86</v>
@@ -10321,10 +10325,10 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10332,7 +10336,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10355,17 +10359,17 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10414,7 +10418,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10432,10 +10436,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10443,7 +10447,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10466,13 +10470,13 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10523,7 +10527,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10541,7 +10545,7 @@
         <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10552,7 +10556,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10575,19 +10579,19 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10636,7 +10640,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10651,13 +10655,13 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -1210,7 +1210,7 @@
 医籍登録番号のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.31 を使用する。</t>
   </si>
   <si>
-    <t xml:space="preserve">value:code}
+    <t xml:space="preserve">pattern:code}
 </t>
   </si>
   <si>
@@ -8495,10 +8495,10 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R59" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>76</v>
@@ -10267,10 +10267,10 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R75" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -591,7 +591,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the practitioner (that apply to all roles)　電話番号やメールアドレスなど、従事者への詳細な連絡先。</t>
+    <t>A contact detail for the practitioner (that apply to all roles)　電話番号やメールアドレスなど、従事者への詳細な連絡先</t>
   </si>
   <si>
     <t>A contact detail for the practitioner, e.g. a telephone number or an email address.
@@ -1621,7 +1621,7 @@
     <t>Practitioner.communication</t>
   </si>
   <si>
-    <t>A language the practitioner can use in patient communication　医療従事者が患者とのコミュニケーションで使用できる言語。</t>
+    <t>A language the practitioner can use in patient communication　医療従事者が患者とのコミュニケーションで使用できる言語</t>
   </si>
   <si>
     <t>A language the practitioner can use in patient communication.

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -481,7 +481,7 @@
 医療機関識別OID番号は、医師IDの発行者である医療機関を識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関番号（都道府県2桁、保険点数表コード1桁、保険医療機関番号７桁を連結したもの）または、特定健診・特定保健指導機関の医療機関番号10桁の先頭に１をつけた11桁とする。
 医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとして、その先頭に１をつけた11桁とする。
 例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」
-なお、rn:oid:1.2.392.100495.20.3.41　の部分は、厚生労働省 電子処方箋CDA 記述仕様第1版（平成30年7月）付表2 OID一覧において医師番号に割り当てられたOIDのURL型である。
+なお、rn:oid:1.2.392.100495.20.3.41　の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。
 地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。
 医師、歯科医師以外の医療者のIDの名前空間を表す system 値は今後検討する。</t>
   </si>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -466,7 +466,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent</t>
+    <t>An identifier for the person as this agent 【詳細参照】</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.
@@ -1194,7 +1194,7 @@
 </t>
   </si>
   <si>
-    <t>Certification, licenses, or training pertaining to the provision of care　ケアの提供に関連する認定、ライセンス、またはトレーニング</t>
+    <t>Certification, licenses, or training pertaining to the provision of care　ケアの提供に関連する認定、ライセンス、またはトレーニング 【詳細参照】</t>
   </si>
   <si>
     <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certain locality.
@@ -1505,10 +1505,13 @@
     <t>Practitioner.qualification.identifier.value</t>
   </si>
   <si>
+    <t>都道府県別　麻薬施用者免許番号 【詳細参照】</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
     <t>都道府県別　麻薬施用者免許番号</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
     <t>123456</t>
@@ -8158,7 +8161,7 @@
         <v>444</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8172,7 +8175,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8208,7 +8211,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8223,10 +8226,10 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>212</v>
@@ -8237,7 +8240,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8263,10 +8266,10 @@
         <v>231</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8317,7 +8320,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8332,10 +8335,10 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>237</v>
@@ -8346,7 +8349,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8369,16 +8372,16 @@
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8428,7 +8431,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8443,13 +8446,13 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8486,7 +8489,7 @@
         <v>384</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8498,7 +8501,7 @@
         <v>76</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>76</v>
@@ -8517,7 +8520,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8593,11 +8596,11 @@
         <v>392</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8698,13 +8701,13 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>400</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8787,7 +8790,7 @@
         <v>361</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>76</v>
@@ -9254,7 +9257,7 @@
         <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>409</v>
@@ -9811,13 +9814,13 @@
         <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>436</v>
@@ -9827,7 +9830,7 @@
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>76</v>
@@ -9924,13 +9927,13 @@
         <v>182</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>444</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9944,7 +9947,7 @@
         <v>76</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>76</v>
@@ -9980,7 +9983,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9995,10 +9998,10 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>212</v>
@@ -10009,7 +10012,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10035,10 +10038,10 @@
         <v>231</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10089,7 +10092,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10104,10 +10107,10 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>237</v>
@@ -10118,7 +10121,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10141,16 +10144,16 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10200,7 +10203,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10215,13 +10218,13 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10258,7 +10261,7 @@
         <v>384</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10270,7 +10273,7 @@
         <v>76</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>76</v>
@@ -10289,7 +10292,7 @@
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10365,11 +10368,11 @@
         <v>392</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10470,13 +10473,13 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>400</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10556,7 +10559,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10582,16 +10585,16 @@
         <v>383</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10640,7 +10643,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10655,13 +10658,13 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -781,7 +781,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
 期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に与える」）を指定する。
 期間は、時間間隔（経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
   </si>
@@ -1304,9 +1304,9 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
 使用のコンテキストは、範囲全体が適用されるか（例：「患者はこの時間範囲で病院の入院患者であった」）、範囲内の1つの値が適用されるか（例：「この2つの時間の間に患者に与える」）を指定する。
-期間は、期間(経過時間の尺度)には使用されない。[Duration](datatypes.html#Duration)を参照のこと。</t>
+期間は、期間(経過時間の尺度)には使用されない。[Duration](http://hl7.org/fhir/R4/datatypes.html#Duration)を参照のこと。</t>
   </si>
   <si>
     <t>Qualifications are often for a limited period of time, and can be revoked.

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -475,15 +475,15 @@
   <si>
     <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
 Practitioner.identifier.systemには、
-医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号
-歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号
-を使用する。
-医療機関識別OID番号は、医師IDの発行者である医療機関を識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関番号（都道府県2桁、保険点数表コード1桁、保険医療機関番号７桁を連結したもの）または、特定健診・特定保健指導機関の医療機関番号10桁の先頭に１をつけた11桁とする。
+医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
+歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号を使用する。  
+医師IDの発行者である医療機関を識別する「医療機関コード」については、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。医療機関識別OID番号については、医療機関コード10桁の先頭に１をつけた11桁とする。
 医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとして、その先頭に１をつけた11桁とする。
 例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」
 なお、rn:oid:1.2.392.100495.20.3.41　の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。
 地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。
-医師、歯科医師以外の医療者のIDの名前空間を表す system 値は今後検討する。</t>
+医師、歯科医師以外の医療者のIDの名前空間を表す system 値はまだ未定のため、空白もしくは「ドメイン名/職員ID」などの識別コードを入れること。
+例：http://www.abd-hospital.co.jp/practitioner-system</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -1577,13 +1577,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
     &lt;code value="narcotics-practitioner"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalLicenseCertificate_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalLicenseCertificate_VS</t>
   </si>
   <si>
     <t>Period during which the qualification is valid.</t>
@@ -1615,7 +1615,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
     &lt;code value="medical-registration"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1985,7 +1985,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.0" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.75390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -466,23 +466,22 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent 【詳細参照】</t>
+    <t>An identifier for the person as this agent Practitionerリソースに対する識別子【詳細参照】</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.
 ある役割の人に適用される識別子。</t>
   </si>
   <si>
-    <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
-Practitioner.identifier.systemには、
-医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
-歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号を使用する。  
-医師IDの発行者である医療機関を識別する「医療機関コード」については、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。医療機関識別OID番号については、医療機関コード10桁の先頭に１をつけた11桁とする。
-医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとして、その先頭に１をつけた11桁とする。
-例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」
-なお、rn:oid:1.2.392.100495.20.3.41　の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。
-地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。
-医師、歯科医師以外の医療者のIDの名前空間を表す system 値はまだ未定のため、空白もしくは「ドメイン名/職員ID」などの識別コードを入れること。
+    <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。  
+Practitioner.identifier.systemは以下の割り当てる。
+- 医師の場合 : urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
+- 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号
+医療機関識別OID番号は患者IDの発行者である施設を識別するものであり、医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」  
+なお、rn:oid:1.2.392.100495.20.3.41 の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。  
+地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。  
+医師、歯科医師以外の医療者のIDの名前空間を表す system 値はまだ未定のため、空白もしくは「ドメイン名/PractitionerのSystem発行キー」などの識別コードを入れること。  
 例：http://www.abd-hospital.co.jp/practitioner-system</t>
   </si>
   <si>
@@ -1434,7 +1433,7 @@
   </si>
   <si>
     <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)]。  
-都道府県毎のOIDを以下に示す。
+都道府県毎のOIDを以下に示す。  
 - urn:oid:1.2.392.100495.20.3.32.101(北海道)
 - urn:oid:1.2.392.100495.20.3.32.102(青森県)
 - urn:oid:1.2.392.100495.20.3.32.103(岩手県)

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -257,10 +260,6 @@
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.
 医療の提供に直接または間接的に関与する者をいう。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1893,55 +1892,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2003,218 +2002,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>82</v>
@@ -2226,7 +2225,7 @@
         <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -2235,20 +2234,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>87</v>
@@ -2267,77 +2266,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -2346,20 +2345,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>87</v>
@@ -2376,77 +2375,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -2455,17 +2454,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>87</v>
@@ -2487,77 +2486,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -2566,23 +2565,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>106</v>
@@ -2598,26 +2597,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>110</v>
@@ -2629,46 +2628,46 @@
         <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2681,19 +2680,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>116</v>
@@ -2709,77 +2708,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2791,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>124</v>
@@ -2820,77 +2819,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2903,19 +2902,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>132</v>
@@ -2931,77 +2930,77 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -3014,19 +3013,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>132</v>
@@ -3044,77 +3043,77 @@
         <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -3123,20 +3122,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>87</v>
@@ -3157,62 +3156,62 @@
         <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>98</v>
@@ -3236,20 +3235,20 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
@@ -3270,76 +3269,76 @@
         <v>158</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>159</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>161</v>
@@ -3351,23 +3350,23 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>163</v>
@@ -3385,59 +3384,59 @@
         <v>167</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>168</v>
@@ -3455,7 +3454,7 @@
         <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -3464,20 +3463,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>87</v>
@@ -3498,62 +3497,62 @@
         <v>177</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>98</v>
@@ -3568,7 +3567,7 @@
         <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -3577,23 +3576,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>182</v>
@@ -3607,77 +3606,77 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -3690,19 +3689,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>132</v>
@@ -3718,38 +3717,38 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>189</v>
@@ -3758,7 +3757,7 @@
         <v>190</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>191</v>
@@ -3767,28 +3766,28 @@
         <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -3797,20 +3796,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
@@ -3827,26 +3826,26 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>196</v>
@@ -3858,25 +3857,25 @@
         <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3897,7 +3896,7 @@
         <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -3906,20 +3905,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
@@ -3940,62 +3939,62 @@
         <v>208</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>209</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>98</v>
@@ -4010,7 +4009,7 @@
         <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -4019,17 +4018,17 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>87</v>
@@ -4053,26 +4052,26 @@
         <v>217</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>196</v>
@@ -4084,31 +4083,31 @@
         <v>219</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
@@ -4123,7 +4122,7 @@
         <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -4132,20 +4131,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>87</v>
@@ -4164,62 +4163,62 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>229</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>98</v>
@@ -4231,10 +4230,10 @@
         <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -4243,20 +4242,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>87</v>
@@ -4275,62 +4274,62 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>235</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
@@ -4345,7 +4344,7 @@
         <v>237</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -4354,20 +4353,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>87</v>
@@ -4388,62 +4387,62 @@
         <v>243</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>238</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>98</v>
@@ -4458,7 +4457,7 @@
         <v>246</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -4467,23 +4466,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>182</v>
@@ -4497,77 +4496,77 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -4580,19 +4579,19 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>132</v>
@@ -4608,38 +4607,38 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>189</v>
@@ -4648,7 +4647,7 @@
         <v>190</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>191</v>
@@ -4657,28 +4656,28 @@
         <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -4687,17 +4686,17 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>87</v>
@@ -4721,26 +4720,26 @@
         <v>253</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>254</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>196</v>
@@ -4752,31 +4751,31 @@
         <v>256</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>257</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
@@ -4791,7 +4790,7 @@
         <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -4800,20 +4799,20 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>87</v>
@@ -4832,26 +4831,26 @@
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>264</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>196</v>
@@ -4863,31 +4862,31 @@
         <v>266</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>267</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>98</v>
@@ -4899,10 +4898,10 @@
         <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -4911,20 +4910,20 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
@@ -4945,62 +4944,62 @@
         <v>273</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>274</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
@@ -5012,10 +5011,10 @@
         <v>277</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -5024,20 +5023,20 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>87</v>
@@ -5054,62 +5053,62 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>281</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
@@ -5124,7 +5123,7 @@
         <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -5137,16 +5136,16 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
@@ -5163,62 +5162,62 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>290</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>291</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
@@ -5233,7 +5232,7 @@
         <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -5246,16 +5245,16 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
@@ -5274,62 +5273,62 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>300</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>98</v>
@@ -5341,10 +5340,10 @@
         <v>303</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -5357,16 +5356,16 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>87</v>
@@ -5383,62 +5382,62 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>308</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>98</v>
@@ -5453,7 +5452,7 @@
         <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -5466,16 +5465,16 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>87</v>
@@ -5492,62 +5491,62 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>316</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>317</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>98</v>
@@ -5562,7 +5561,7 @@
         <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -5571,20 +5570,20 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>87</v>
@@ -5603,62 +5602,62 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>325</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>98</v>
@@ -5673,7 +5672,7 @@
         <v>328</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5682,20 +5681,20 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>87</v>
@@ -5716,62 +5715,62 @@
         <v>332</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>333</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>334</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>98</v>
@@ -5786,7 +5785,7 @@
         <v>237</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -5795,20 +5794,20 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>87</v>
@@ -5827,26 +5826,26 @@
         <v>339</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>196</v>
@@ -5858,31 +5857,31 @@
         <v>341</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>98</v>
@@ -5897,7 +5896,7 @@
         <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -5906,20 +5905,20 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
@@ -5938,62 +5937,62 @@
         <v>349</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>98</v>
@@ -6008,7 +6007,7 @@
         <v>352</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -6017,23 +6016,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>354</v>
@@ -6051,68 +6050,68 @@
         <v>358</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>353</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>359</v>
@@ -6121,7 +6120,7 @@
         <v>360</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -6130,23 +6129,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>362</v>
@@ -6162,45 +6161,45 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>191</v>
@@ -6209,13 +6208,13 @@
         <v>361</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6230,7 +6229,7 @@
         <v>369</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -6239,23 +6238,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>182</v>
@@ -6269,77 +6268,77 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -6352,19 +6351,19 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>132</v>
@@ -6380,77 +6379,77 @@
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>192</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -6463,13 +6462,13 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>87</v>
@@ -6493,77 +6492,77 @@
         <v>141</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
@@ -6572,23 +6571,23 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>144</v>
@@ -6604,77 +6603,77 @@
         <v>380</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>381</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
@@ -6683,7 +6682,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6693,13 +6692,13 @@
         <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>383</v>
@@ -6715,26 +6714,26 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>387</v>
@@ -6746,19 +6745,19 @@
         <v>389</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>382</v>
@@ -6770,13 +6769,13 @@
         <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>368</v>
@@ -6785,7 +6784,7 @@
         <v>390</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -6794,23 +6793,23 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>231</v>
@@ -6828,68 +6827,68 @@
         <v>395</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>396</v>
@@ -6898,7 +6897,7 @@
         <v>397</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -6907,23 +6906,23 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>399</v>
@@ -6939,77 +6938,77 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>398</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>403</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -7020,23 +7019,23 @@
         <v>404</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>405</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>362</v>
@@ -7050,62 +7049,62 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>98</v>
@@ -7120,7 +7119,7 @@
         <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
@@ -7129,23 +7128,23 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>182</v>
@@ -7159,77 +7158,77 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
@@ -7242,19 +7241,19 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>132</v>
@@ -7270,77 +7269,77 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>192</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
@@ -7353,13 +7352,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>87</v>
@@ -7383,77 +7382,77 @@
         <v>141</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -7462,23 +7461,23 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>144</v>
@@ -7494,77 +7493,77 @@
         <v>410</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>377</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
@@ -7573,23 +7572,23 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>182</v>
@@ -7603,77 +7602,77 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -7686,19 +7685,19 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>132</v>
@@ -7714,38 +7713,38 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>189</v>
@@ -7754,7 +7753,7 @@
         <v>190</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>191</v>
@@ -7763,28 +7762,28 @@
         <v>192</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -7793,17 +7792,17 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>87</v>
@@ -7827,26 +7826,26 @@
         <v>417</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>196</v>
@@ -7858,31 +7857,31 @@
         <v>419</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
@@ -7894,10 +7893,10 @@
         <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -7906,20 +7905,20 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>87</v>
@@ -7940,26 +7939,26 @@
         <v>426</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
         <v>427</v>
@@ -7971,31 +7970,31 @@
         <v>429</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>430</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>98</v>
@@ -8007,10 +8006,10 @@
         <v>421</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
@@ -8019,20 +8018,20 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>87</v>
@@ -8053,62 +8052,62 @@
         <v>436</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>437</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
@@ -8123,7 +8122,7 @@
         <v>441</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -8132,20 +8131,20 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>87</v>
@@ -8164,62 +8163,62 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>446</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>98</v>
@@ -8234,7 +8233,7 @@
         <v>212</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
@@ -8243,20 +8242,20 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>87</v>
@@ -8273,62 +8272,62 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>453</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>98</v>
@@ -8343,7 +8342,7 @@
         <v>237</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
@@ -8352,20 +8351,20 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>87</v>
@@ -8384,62 +8383,62 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>98</v>
@@ -8454,7 +8453,7 @@
         <v>464</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
@@ -8463,7 +8462,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8473,13 +8472,13 @@
         <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>383</v>
@@ -8493,26 +8492,26 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>466</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
         <v>196</v>
@@ -8522,19 +8521,19 @@
         <v>467</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>382</v>
@@ -8546,13 +8545,13 @@
         <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>368</v>
@@ -8561,7 +8560,7 @@
         <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
@@ -8570,23 +8569,23 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>231</v>
@@ -8602,68 +8601,68 @@
         <v>469</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>396</v>
@@ -8672,7 +8671,7 @@
         <v>397</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
@@ -8681,23 +8680,23 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>457</v>
@@ -8711,77 +8710,77 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>398</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>403</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
@@ -8792,23 +8791,23 @@
         <v>471</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>362</v>
@@ -8822,62 +8821,62 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>98</v>
@@ -8892,7 +8891,7 @@
         <v>369</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
@@ -8901,23 +8900,23 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>182</v>
@@ -8931,77 +8930,77 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
@@ -9014,19 +9013,19 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>132</v>
@@ -9042,77 +9041,77 @@
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>192</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
@@ -9125,13 +9124,13 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>87</v>
@@ -9155,77 +9154,77 @@
         <v>141</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
@@ -9234,23 +9233,23 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>144</v>
@@ -9266,77 +9265,77 @@
         <v>410</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>377</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>381</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
@@ -9345,23 +9344,23 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>182</v>
@@ -9375,77 +9374,77 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
@@ -9458,19 +9457,19 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>132</v>
@@ -9486,38 +9485,38 @@
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>189</v>
@@ -9526,7 +9525,7 @@
         <v>190</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>191</v>
@@ -9535,28 +9534,28 @@
         <v>192</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
@@ -9565,17 +9564,17 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>87</v>
@@ -9599,26 +9598,26 @@
         <v>417</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
         <v>196</v>
@@ -9630,31 +9629,31 @@
         <v>419</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>420</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>98</v>
@@ -9666,10 +9665,10 @@
         <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
@@ -9678,20 +9677,20 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>87</v>
@@ -9712,26 +9711,26 @@
         <v>426</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
         <v>427</v>
@@ -9743,31 +9742,31 @@
         <v>429</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>430</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
@@ -9779,10 +9778,10 @@
         <v>421</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71">
@@ -9791,20 +9790,20 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>87</v>
@@ -9825,62 +9824,62 @@
         <v>436</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>476</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>437</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
         <v>438</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>98</v>
@@ -9895,7 +9894,7 @@
         <v>441</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
@@ -9904,20 +9903,20 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>87</v>
@@ -9936,62 +9935,62 @@
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>446</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>98</v>
@@ -10006,7 +10005,7 @@
         <v>212</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
@@ -10015,20 +10014,20 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>87</v>
@@ -10045,62 +10044,62 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>453</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>98</v>
@@ -10115,7 +10114,7 @@
         <v>237</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
@@ -10124,20 +10123,20 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>87</v>
@@ -10156,62 +10155,62 @@
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>98</v>
@@ -10226,7 +10225,7 @@
         <v>464</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
@@ -10235,7 +10234,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10245,13 +10244,13 @@
         <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>383</v>
@@ -10265,26 +10264,26 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>477</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
         <v>196</v>
@@ -10294,19 +10293,19 @@
         <v>467</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>382</v>
@@ -10318,13 +10317,13 @@
         <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>368</v>
@@ -10333,7 +10332,7 @@
         <v>390</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
@@ -10342,23 +10341,23 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>231</v>
@@ -10374,68 +10373,68 @@
         <v>469</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>396</v>
@@ -10444,7 +10443,7 @@
         <v>397</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
@@ -10453,23 +10452,23 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>457</v>
@@ -10483,77 +10482,77 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>398</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>403</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
@@ -10562,23 +10561,23 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>383</v>
@@ -10596,26 +10595,26 @@
         <v>482</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
         <v>110</v>
@@ -10627,31 +10626,31 @@
         <v>112</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
         <v>478</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>98</v>
@@ -10666,7 +10665,7 @@
         <v>485</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>ヘルスケアまたは関連サービスの提供に正式な責任を負う人</t>
@@ -2249,13 +2253,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2321,13 +2325,13 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -2335,10 +2339,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2349,7 +2353,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2358,19 +2362,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2420,13 +2424,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2449,10 +2453,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2463,7 +2467,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2472,16 +2476,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2532,19 +2536,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2561,10 +2565,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2575,28 +2579,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2646,19 +2650,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2675,10 +2679,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2689,7 +2693,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2701,16 +2705,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2736,13 +2740,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -2760,19 +2764,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2789,21 +2793,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2815,16 +2819,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2874,25 +2878,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2903,14 +2907,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2929,16 +2933,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2988,7 +2992,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -3006,7 +3010,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -3017,14 +3021,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3043,16 +3047,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3102,7 +3106,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -3114,13 +3118,13 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -3131,14 +3135,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3151,25 +3155,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -3218,7 +3222,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3230,13 +3234,13 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3247,10 +3251,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3270,22 +3274,22 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3334,7 +3338,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3346,27 +3350,27 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3377,7 +3381,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3386,105 +3390,105 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3507,19 +3511,19 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3568,7 +3572,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3577,19 +3581,19 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3597,10 +3601,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3620,22 +3624,22 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3684,7 +3688,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3696,16 +3700,16 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3713,10 +3717,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3727,7 +3731,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3739,13 +3743,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3796,13 +3800,13 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -3814,7 +3818,7 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3825,14 +3829,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3851,16 +3855,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3898,19 +3902,19 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3922,13 +3926,13 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3939,10 +3943,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3953,7 +3957,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3962,16 +3966,16 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3998,13 +4002,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -4022,28 +4026,28 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4051,10 +4055,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4065,7 +4069,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -4074,22 +4078,22 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4138,28 +4142,28 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4167,10 +4171,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4181,31 +4185,31 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4230,13 +4234,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -4254,28 +4258,28 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4283,10 +4287,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4297,7 +4301,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4306,19 +4310,19 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4368,25 +4372,25 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4397,10 +4401,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4411,7 +4415,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4420,19 +4424,19 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4482,28 +4486,28 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4511,10 +4515,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4534,22 +4538,22 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4598,7 +4602,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4610,16 +4614,16 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4627,10 +4631,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4641,7 +4645,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4653,13 +4657,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4710,13 +4714,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4728,7 +4732,7 @@
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4739,14 +4743,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4765,16 +4769,16 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4812,19 +4816,19 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4836,13 +4840,13 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4853,10 +4857,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4867,31 +4871,31 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4904,7 +4908,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -4916,13 +4920,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4940,28 +4944,28 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4969,10 +4973,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4983,7 +4987,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4992,19 +4996,19 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5018,7 +5022,7 @@
         <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>78</v>
@@ -5030,13 +5034,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5054,25 +5058,25 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -5083,10 +5087,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5097,7 +5101,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -5106,22 +5110,22 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5134,7 +5138,7 @@
         <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>78</v>
@@ -5170,25 +5174,25 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5199,10 +5203,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5222,16 +5226,16 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5246,7 +5250,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -5282,7 +5286,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5294,16 +5298,16 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5311,21 +5315,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5334,16 +5338,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5358,7 +5362,7 @@
         <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>78</v>
@@ -5394,28 +5398,28 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5423,21 +5427,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5446,19 +5450,19 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5472,7 +5476,7 @@
         <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>78</v>
@@ -5508,25 +5512,25 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5537,21 +5541,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5560,16 +5564,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5620,28 +5624,28 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5649,21 +5653,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5672,16 +5676,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5696,7 +5700,7 @@
         <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>78</v>
@@ -5732,28 +5736,28 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5761,10 +5765,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5775,7 +5779,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5784,19 +5788,19 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5846,28 +5850,28 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5875,10 +5879,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5889,7 +5893,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5898,22 +5902,22 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5926,7 +5930,7 @@
         <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>78</v>
@@ -5962,28 +5966,28 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5991,10 +5995,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6005,7 +6009,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -6014,20 +6018,20 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6052,13 +6056,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6076,28 +6080,28 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6105,10 +6109,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6119,7 +6123,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6128,20 +6132,20 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6190,28 +6194,28 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6219,10 +6223,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6245,19 +6249,19 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6306,7 +6310,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6318,16 +6322,16 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6335,10 +6339,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6361,16 +6365,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6408,17 +6412,17 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6430,16 +6434,16 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6447,10 +6451,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6461,7 +6465,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6473,13 +6477,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6530,13 +6534,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6548,7 +6552,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6559,14 +6563,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6585,16 +6589,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6644,7 +6648,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6656,13 +6660,13 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6673,14 +6677,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6693,25 +6697,25 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6760,7 +6764,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6772,13 +6776,13 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6789,10 +6793,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6815,17 +6819,17 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6874,7 +6878,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6886,13 +6890,13 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6903,10 +6907,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6914,10 +6918,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6929,16 +6933,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6964,13 +6968,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6988,28 +6992,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7017,10 +7021,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7031,7 +7035,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7043,19 +7047,19 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7104,28 +7108,28 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7133,10 +7137,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7147,7 +7151,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7159,16 +7163,16 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7218,25 +7222,25 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7247,13 +7251,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
@@ -7263,7 +7267,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7275,13 +7279,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7332,7 +7336,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7344,16 +7348,16 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7361,10 +7365,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7375,7 +7379,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7387,13 +7391,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7444,13 +7448,13 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7462,7 +7466,7 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7473,14 +7477,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7499,16 +7503,16 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7558,7 +7562,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7570,13 +7574,13 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7587,14 +7591,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7607,25 +7611,25 @@
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7674,7 +7678,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7686,13 +7690,13 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7703,10 +7707,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7729,17 +7733,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7788,7 +7792,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7800,13 +7804,13 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7817,10 +7821,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7831,7 +7835,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7843,13 +7847,13 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7900,13 +7904,13 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -7918,7 +7922,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7929,14 +7933,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7955,16 +7959,16 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8002,19 +8006,19 @@
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8026,13 +8030,13 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -8043,10 +8047,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8057,31 +8061,31 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8106,13 +8110,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8130,25 +8134,25 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8159,10 +8163,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8173,7 +8177,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8182,22 +8186,22 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8222,13 +8226,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8246,25 +8250,25 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8275,10 +8279,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8289,7 +8293,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8298,22 +8302,22 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8326,7 +8330,7 @@
         <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>78</v>
@@ -8362,28 +8366,28 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8391,10 +8395,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8405,7 +8409,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8414,19 +8418,19 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8440,7 +8444,7 @@
         <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>78</v>
@@ -8476,28 +8480,28 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8505,10 +8509,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8519,7 +8523,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8528,16 +8532,16 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8588,28 +8592,28 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8617,10 +8621,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8631,7 +8635,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8640,19 +8644,19 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8702,28 +8706,28 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8731,10 +8735,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8742,10 +8746,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8757,13 +8761,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8775,7 +8779,7 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>78</v>
@@ -8790,11 +8794,11 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8812,28 +8816,28 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8841,10 +8845,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8855,7 +8859,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8867,17 +8871,17 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8926,28 +8930,28 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8955,10 +8959,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8969,7 +8973,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8981,13 +8985,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9038,25 +9042,25 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9067,13 +9071,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>78</v>
@@ -9083,7 +9087,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9095,13 +9099,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9152,7 +9156,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9164,16 +9168,16 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9181,10 +9185,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9195,7 +9199,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9207,13 +9211,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9264,13 +9268,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -9282,7 +9286,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9293,14 +9297,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9319,16 +9323,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9378,7 +9382,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9390,13 +9394,13 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9407,14 +9411,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9427,25 +9431,25 @@
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9494,7 +9498,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9506,13 +9510,13 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9523,10 +9527,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9549,17 +9553,17 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9608,7 +9612,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9620,13 +9624,13 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9637,10 +9641,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9651,7 +9655,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9663,13 +9667,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9720,13 +9724,13 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
@@ -9738,7 +9742,7 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9749,14 +9753,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9775,16 +9779,16 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9822,19 +9826,19 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9846,13 +9850,13 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -9863,10 +9867,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9877,31 +9881,31 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9926,13 +9930,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9950,25 +9954,25 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9979,10 +9983,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9993,7 +9997,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10002,22 +10006,22 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10042,13 +10046,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10066,25 +10070,25 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10095,10 +10099,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10109,7 +10113,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -10118,35 +10122,35 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>78</v>
@@ -10182,28 +10186,28 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10211,10 +10215,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10225,7 +10229,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10234,19 +10238,19 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10260,7 +10264,7 @@
         <v>78</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>78</v>
@@ -10296,28 +10300,28 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10325,10 +10329,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10339,7 +10343,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10348,16 +10352,16 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10408,28 +10412,28 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10437,10 +10441,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10451,7 +10455,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10460,19 +10464,19 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10522,28 +10526,28 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10551,10 +10555,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10562,10 +10566,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10577,13 +10581,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10595,7 +10599,7 @@
         <v>78</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>78</v>
@@ -10610,11 +10614,11 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10632,28 +10636,28 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10661,10 +10665,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10675,7 +10679,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10687,17 +10691,17 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10746,28 +10750,28 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10775,10 +10779,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10789,7 +10793,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10801,13 +10805,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10858,25 +10862,25 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -10887,10 +10891,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10913,19 +10917,19 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -10950,13 +10954,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10974,7 +10978,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10986,16 +10990,16 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>ヘルスケアまたは関連サービスの提供に正式な責任を負う人</t>
@@ -2253,13 +2249,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2325,13 +2321,13 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -2339,10 +2335,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2353,28 +2349,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2424,13 +2420,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2453,10 +2449,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2467,25 +2463,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2536,19 +2532,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2565,10 +2561,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2579,28 +2575,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2650,19 +2646,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2679,10 +2675,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2693,7 +2689,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2705,16 +2701,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2740,43 +2736,43 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2793,21 +2789,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2819,16 +2815,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2878,25 +2874,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2907,14 +2903,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2933,16 +2929,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2992,7 +2988,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -3010,7 +3006,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -3021,14 +3017,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3047,16 +3043,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3106,7 +3102,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -3118,13 +3114,13 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -3135,14 +3131,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3155,25 +3151,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -3222,7 +3218,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3234,13 +3230,13 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3251,10 +3247,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3274,22 +3270,22 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3338,7 +3334,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3350,27 +3346,27 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3381,114 +3377,114 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O12" t="s" s="2">
+      <c r="P12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q12" t="s" s="2">
+      <c r="R12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3511,19 +3507,19 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3572,7 +3568,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3581,19 +3577,19 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3601,10 +3597,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3624,22 +3620,22 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3688,7 +3684,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3700,16 +3696,16 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3717,10 +3713,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3731,7 +3727,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3743,13 +3739,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3800,25 +3796,25 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3829,14 +3825,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3855,16 +3851,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3902,19 +3898,19 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AC16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3926,13 +3922,13 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3943,10 +3939,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3957,25 +3953,25 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4002,52 +3998,52 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI17" t="s" s="2">
+      <c r="AJ17" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4055,10 +4051,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4069,31 +4065,31 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4142,28 +4138,28 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4171,10 +4167,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4185,31 +4181,31 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4234,52 +4230,52 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Z19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4287,10 +4283,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4301,28 +4297,28 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4372,25 +4368,25 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4401,10 +4397,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4415,28 +4411,28 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4486,28 +4482,28 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4515,10 +4511,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4538,22 +4534,22 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4602,7 +4598,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4614,16 +4610,16 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4631,10 +4627,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4645,7 +4641,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4657,13 +4653,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4714,25 +4710,25 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4743,14 +4739,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4769,16 +4765,16 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4816,19 +4812,19 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AC24" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AC24" t="s" s="2">
+      <c r="AD24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AD24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4840,13 +4836,13 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4857,10 +4853,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4871,31 +4867,31 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4908,64 +4904,64 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="U25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4973,10 +4969,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4987,28 +4983,28 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5022,61 +5018,61 @@
         <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="U26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF26" t="s" s="2">
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -5087,10 +5083,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5101,31 +5097,31 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5138,61 +5134,61 @@
         <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="U27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5203,10 +5199,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5226,16 +5222,16 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5250,43 +5246,43 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5298,16 +5294,16 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5315,39 +5311,39 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5362,64 +5358,64 @@
         <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="U29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF29" t="s" s="2">
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5427,42 +5423,42 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5476,61 +5472,61 @@
         <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="U30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF30" t="s" s="2">
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5541,39 +5537,39 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5624,28 +5620,28 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5653,39 +5649,39 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5700,64 +5696,64 @@
         <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="U32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5765,10 +5761,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5779,28 +5775,28 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5850,28 +5846,28 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5879,10 +5875,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5893,31 +5889,31 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5930,64 +5926,64 @@
         <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="U34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF34" t="s" s="2">
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AL34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5995,10 +5991,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6009,29 +6005,29 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6056,52 +6052,52 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6109,10 +6105,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6123,29 +6119,29 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K36" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6194,28 +6190,28 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6223,10 +6219,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6249,19 +6245,19 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6310,7 +6306,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6322,16 +6318,16 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6339,10 +6335,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6365,16 +6361,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6412,17 +6408,17 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6434,16 +6430,16 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6451,10 +6447,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6465,7 +6461,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6477,13 +6473,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6534,25 +6530,25 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6563,14 +6559,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6589,16 +6585,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6648,7 +6644,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6660,13 +6656,13 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6677,14 +6673,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6697,25 +6693,25 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="N41" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6764,7 +6760,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6776,13 +6772,13 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6793,10 +6789,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6819,17 +6815,17 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6878,7 +6874,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6890,13 +6886,13 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6907,10 +6903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6918,10 +6914,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6933,16 +6929,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6968,52 +6964,52 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Z43" t="s" s="2">
+      <c r="AA43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7021,10 +7017,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7035,7 +7031,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7047,19 +7043,19 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7108,28 +7104,28 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7137,10 +7133,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7151,7 +7147,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7163,16 +7159,16 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7222,25 +7218,25 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7251,13 +7247,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
@@ -7267,25 +7263,25 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7336,7 +7332,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7348,16 +7344,16 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7365,10 +7361,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7379,7 +7375,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7391,13 +7387,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7448,25 +7444,25 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7477,14 +7473,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7503,16 +7499,16 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M48" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7562,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7574,13 +7570,13 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7591,14 +7587,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7611,25 +7607,25 @@
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7678,7 +7674,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7690,13 +7686,13 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7707,10 +7703,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7733,17 +7729,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7792,7 +7788,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7804,13 +7800,13 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7821,10 +7817,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7835,7 +7831,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7847,13 +7843,13 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7904,25 +7900,25 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7933,14 +7929,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7959,16 +7955,16 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8006,19 +8002,19 @@
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AC52" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AC52" t="s" s="2">
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AD52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8030,13 +8026,13 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -8047,10 +8043,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8061,31 +8057,31 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8110,49 +8106,49 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Z53" t="s" s="2">
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF53" t="s" s="2">
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8163,10 +8159,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8177,31 +8173,31 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8226,49 +8222,49 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF54" t="s" s="2">
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="AL54" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8279,10 +8275,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8293,31 +8289,31 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K55" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8330,64 +8326,64 @@
         <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="U55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF55" t="s" s="2">
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8395,10 +8391,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8409,28 +8405,28 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K56" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8444,64 +8440,64 @@
         <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="U56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF56" t="s" s="2">
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AM56" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8509,10 +8505,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8523,25 +8519,25 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K57" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8592,28 +8588,28 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8621,10 +8617,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8635,28 +8631,28 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8706,28 +8702,28 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8735,10 +8731,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8746,10 +8742,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8761,13 +8757,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8779,7 +8775,7 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>78</v>
@@ -8794,11 +8790,11 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8816,28 +8812,28 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8845,10 +8841,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8859,7 +8855,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8871,17 +8867,17 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8930,28 +8926,28 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8959,10 +8955,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8973,7 +8969,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8985,13 +8981,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9042,25 +9038,25 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9071,13 +9067,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>78</v>
@@ -9087,7 +9083,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9099,13 +9095,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9156,7 +9152,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9168,16 +9164,16 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9185,10 +9181,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9199,7 +9195,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9211,13 +9207,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9268,25 +9264,25 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9297,14 +9293,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9323,16 +9319,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9382,7 +9378,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9394,13 +9390,13 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9411,14 +9407,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9431,25 +9427,25 @@
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="N65" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9498,7 +9494,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9510,13 +9506,13 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9527,10 +9523,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9553,17 +9549,17 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9612,7 +9608,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9624,13 +9620,13 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9641,10 +9637,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9655,7 +9651,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9667,13 +9663,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9724,25 +9720,25 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9753,14 +9749,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9779,16 +9775,16 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9826,19 +9822,19 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AC68" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AC68" t="s" s="2">
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
+      <c r="AF68" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9850,13 +9846,13 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -9867,10 +9863,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9881,31 +9877,31 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9930,49 +9926,49 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z69" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Z69" t="s" s="2">
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF69" t="s" s="2">
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9983,10 +9979,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9997,31 +9993,31 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K70" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10046,49 +10042,49 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Z70" t="s" s="2">
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="AL70" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10099,10 +10095,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10113,101 +10109,101 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J71" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K71" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>503</v>
-      </c>
       <c r="O71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="U71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF71" t="s" s="2">
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10215,10 +10211,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10229,28 +10225,28 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J72" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K72" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10264,64 +10260,64 @@
         <v>78</v>
       </c>
       <c r="T72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="U72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF72" t="s" s="2">
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AM72" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10329,10 +10325,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10343,25 +10339,25 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K73" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10412,28 +10408,28 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="AM73" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10441,10 +10437,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10455,28 +10451,28 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K74" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10526,28 +10522,28 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10555,10 +10551,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10566,10 +10562,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10581,13 +10577,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="M75" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10599,7 +10595,7 @@
         <v>78</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>78</v>
@@ -10614,11 +10610,11 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10636,28 +10632,28 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10665,10 +10661,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10679,7 +10675,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -10691,17 +10687,17 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10750,28 +10746,28 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10779,10 +10775,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10793,7 +10789,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10805,13 +10801,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10862,25 +10858,25 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -10891,10 +10887,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10917,19 +10913,19 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -10954,14 +10950,14 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y78" t="s" s="2">
+      <c r="Z78" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
       </c>
@@ -10978,7 +10974,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10990,16 +10986,16 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -1215,7 +1215,7 @@
 医籍登録番号のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.31 を使用する。</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="528">
   <si>
     <t>Property</t>
   </si>
@@ -291,13 +291,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -310,16 +310,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -330,13 +330,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -349,19 +349,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -381,13 +381,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -407,13 +407,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -433,33 +433,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -514,7 +515,7 @@
 </t>
   </si>
   <si>
-    <t>Whether this practitioner's record is in active use</t>
+    <t>この開業医の記録が積極的に使用されているかどうか / Whether this practitioner's record is in active use</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use.
@@ -529,7 +530,7 @@
 医療従事者のレコードを誤って作成してしまったとき、使用しないようにマークできるようにする必要がある。</t>
   </si>
   <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>このリソースは、アクティブな要素の値が提供されていない場合、一般にアクティブであると想定されています / This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
     <t>./statusCode</t>
@@ -628,10 +629,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -643,14 +644,20 @@
     <t>Practitioner.telecom.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>拡張子は常にURLで切り片にされます。</t>
   </si>
   <si>
     <t>open</t>
@@ -659,19 +666,23 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Practitioner.telecom.system</t>
   </si>
   <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+    <t>電話 | ファックス | メール | ページャー | URL | SMS | その他</t>
+  </si>
+  <si>
+    <t>連絡先用通信フォーム - どの通信システムを使用するには接点が必要ですか。</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Telecommunications form for contact point.</t>
+    <t>「連絡先のための通信フォーム。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -684,6 +695,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>XTN.3</t>
   </si>
   <si>
@@ -696,13 +711,13 @@
     <t>Practitioner.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+    <t>実際の連絡先の詳細</t>
+  </si>
+  <si>
+    <t>指定されたコミュニケーションシステムに意味がある形式での実際の連絡先の詳細（電話番号または電子メールアドレス）を提供してください。</t>
+  </si>
+  <si>
+    <t>"電話番号の内線や、その連絡先の使用に関するメモなど、追加のテキストデータが値に含まれる場合があります。"</t>
   </si>
   <si>
     <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
@@ -723,19 +738,19 @@
     <t>Practitioner.telecom.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+    <t>「家 | 仕事 | 一時的 | 古い | 携帯電話 - この連絡先の目的」(Ie | Shigoto | Ichijiteki | Furui | Keitaidenwa - Kono renrakusaki no mokuteki)</t>
+  </si>
+  <si>
+    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
+  </si>
+  <si>
+    <t>「アプリケーションは、一時的なものまたは古いものであると明示しない限り、連絡先が最新であると想定できます。」</t>
   </si>
   <si>
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>Use of contact point.</t>
+    <t>「接点の使用。」(Setten no shiyō.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
@@ -760,13 +775,13 @@
 </t>
   </si>
   <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+    <t>「使用の優先順位を指定してください（1が最も優先度が高い）」</t>
+  </si>
+  <si>
+    <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
+  </si>
+  <si>
+    <t>「ランクは、インスタンス内で連絡先が表示される順序に必ずしも従わないことに注意してください。」</t>
   </si>
   <si>
     <t>ContactPoint.rank</t>
@@ -779,10 +794,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
+    <t>「コンタクトポイントが使用されている時間帯」</t>
+  </si>
+  <si>
+    <t>「接点が使用されていた/現在使用中である時間期間」</t>
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
@@ -837,28 +852,40 @@
     <t>Practitioner.address.id</t>
   </si>
   <si>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
     <t>Practitioner.address.extension</t>
   </si>
   <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>Practitioner.address.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
+    <t>ホーム|作業|温度|古い|請求 - この住所の目的 / home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>このアドレスの目的。 / The purpose of this address.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、一時的または古いものであると明示的に言わない限り、住所が最新であると想定できます。 / Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>The use of an address.</t>
+    <t>アドレスの使用。 / The use of an address.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
@@ -876,19 +903,19 @@
     <t>Practitioner.address.type</t>
   </si>
   <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>郵便|物理|両方 / postal | physical | both</t>
+  </si>
+  <si>
+    <t>物理的な住所（アクセスできるもの）と郵送先住所（例：POボックスやアドレスのケア）を区別します。ほとんどのアドレスは両方です。 / Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>住所の定義は、「住所は物理的な場所ではなく、郵便アドレスを記述することを目的としている」と述べています。ただし、多くのアプリケーションは、住所が訪問できる場所であるという二重の目的を持っているかどうか、有効な配達先であるかどうかを追跡し、郵便アドレスは物理的な場所のプロキシとしてよく使用されます（[場所]（場所を参照してください。HTML＃）リソース）。 / The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
   </si>
   <si>
-    <t>The type of an address (physical / postal).</t>
+    <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
@@ -903,16 +930,16 @@
     <t>Practitioner.address.text</t>
   </si>
   <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
+    <t>アドレスのテキスト表現 / Text representation of the address</t>
+  </si>
+  <si>
+    <t>アドレス全体を指定する必要があるため、例えば郵便ラベルで。これは、特定の部分の代わりに、または特定の部分と同様に提供される場合があります。 / Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>テキスト表現とパーツの両方を提供できます。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、一部に見つからないテキストにコンテンツが含まれていないことを保証するものとします。 / Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
     <t>137 Nowhere Street, Erewhon 9132</t>
@@ -930,10 +957,10 @@
     <t>Practitioner.address.line</t>
   </si>
   <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+    <t>ストリート名、番号、方向＆P.O。ボックスなど / Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>このコンポーネントには、家番号、アパート番号、ストリート名、通りの方向、P.O。ボックス番号、配信ヒント、および同様のアドレス情報。 / This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
   </si>
   <si>
     <t>137 Nowhere Street</t>
@@ -958,10 +985,10 @@
 </t>
   </si>
   <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+    <t>都市、町などの名前。 / Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>都市、町、郊外、村、またはその他のコミュニティまたは配達センターの名前。 / The name of the city, town, suburb, village or other community or delivery center.</t>
   </si>
   <si>
     <t>Erewhon</t>
@@ -986,13 +1013,13 @@
 </t>
   </si>
   <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+    <t>地区名（別名郡） / District name (aka county)</t>
+  </si>
+  <si>
+    <t>管理エリア（郡）の名前。 / The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>地区は郡として知られていることもありますが、一部の地域では「郡」は都市（自治体）の代わりに使用されているため、代わりに郡の名前を都市で伝える必要があります。 / District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
   </si>
   <si>
     <t>Madison</t>
@@ -1014,10 +1041,10 @@
 Territory</t>
   </si>
   <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+    <t>国のサブユニット（略語OK） / Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>連邦政府が組織された国に限られた主権を持つ国のサブユニット。コードが一般的に使用されている場合（たとえば、2文字の状態コードなど）、コードを使用できます。 / Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1039,10 +1066,10 @@
 </t>
   </si>
   <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
+    <t>エリアの郵便番号 / Postal code for area</t>
+  </si>
+  <si>
+    <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
     <t>9132</t>
@@ -1063,13 +1090,13 @@
     <t>Practitioner.address.country</t>
   </si>
   <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+    <t>国（例えばISO 3166 2または3文字のコードにすることができます） / Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>国 - 一般的に理解されるか、一般的に受け入れられている国。 / Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3文字コードは、人間の読み取り可能な国名の代わりに使用できます。 / ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -1087,13 +1114,13 @@
     <t>Practitioner.address.period</t>
   </si>
   <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
+    <t>アドレスが使用されていた期間 / Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>アドレスが使用されていた期間。 / Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
@@ -1111,7 +1138,7 @@
     <t>Practitioner.gender</t>
   </si>
   <si>
-    <t>male | female | other | unknown</t>
+    <t>男性|女性|その他|わからない / male | female | other | unknown</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the person is considered to have for administration and record keeping purposes.
@@ -1122,7 +1149,7 @@
 正しく相手に対応する必要がある。</t>
   </si>
   <si>
-    <t>The gender of a person used for administrative purposes.</t>
+    <t>管理目的で使用される人の性別。 / The gender of a person used for administrative purposes.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
@@ -1171,7 +1198,7 @@
 </t>
   </si>
   <si>
-    <t>Image of the person</t>
+    <t>人の画像 / Image of the person</t>
   </si>
   <si>
     <t>Image of the person.
@@ -1241,10 +1268,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1254,7 +1282,7 @@
     <t>Practitioner.qualification.identifier</t>
   </si>
   <si>
-    <t>An identifier for this qualification for the practitioner</t>
+    <t>開業医のこの資格の識別子 / An identifier for this qualification for the practitioner</t>
   </si>
   <si>
     <t>An identifier that applies to this person's qualification in this role.
@@ -1275,7 +1303,7 @@
 </t>
   </si>
   <si>
-    <t>Coded representation of the qualification</t>
+    <t>資格のコード化された表現 / Coded representation of the qualification</t>
   </si>
   <si>
     <t>Coded representation of the qualification.
@@ -1289,7 +1317,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Specific qualification the practitioner has to provide a service.</t>
+    <t>特定の資格開業医はサービスを提供する必要があります。 / Specific qualification the practitioner has to provide a service.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
@@ -1301,7 +1329,7 @@
     <t>Practitioner.qualification.period</t>
   </si>
   <si>
-    <t>Period during which the qualification is valid</t>
+    <t>資格が有効な期間 / Period during which the qualification is valid</t>
   </si>
   <si>
     <t>Period during which the qualification is valid.
@@ -1331,7 +1359,7 @@
 </t>
   </si>
   <si>
-    <t>Organization that regulates and issues the qualification</t>
+    <t>資格を規制および発行する組織 / Organization that regulates and issues the qualification</t>
   </si>
   <si>
     <t>Organization that regulates and issues the qualification.
@@ -1354,10 +1382,10 @@
     <t>47</t>
   </si>
   <si>
-    <t>Certification, licenses, or training pertaining to the provision of care</t>
-  </si>
-  <si>
-    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
+    <t>ケアの提供に関する認定、ライセンス、またはトレーニング / Certification, licenses, or training pertaining to the provision of care</t>
+  </si>
+  <si>
+    <t>開業医によるケアの提供に承認またはその他の方法である公式認定、トレーニング、およびライセンス。たとえば、医療委員会によって発行された医療免許は、実務家に証明書の地域内で医学を実践することを許可しています。 / The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
   </si>
   <si>
     <t>Practitioner.qualification:narcoticPrescriptionLicenseNumber.id</t>
@@ -1375,10 +1403,10 @@
     <t>都道府県別 麻薬施用者免許番号</t>
   </si>
   <si>
-    <t>An identifier that applies to this person's qualification in this role.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the qualification.</t>
+    <t>この役割におけるこの人の資格に適用される識別子。 / An identifier that applies to this person's qualification in this role.</t>
+  </si>
+  <si>
+    <t>多くの場合、資格に特定のIDが割り当てられます。 / Often, specific identities are assigned for the qualification.</t>
   </si>
   <si>
     <t>Practitioner.qualification:narcoticPrescriptionLicenseNumber.identifier.id</t>
@@ -1399,19 +1427,19 @@
     <t>Practitioner.qualification.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -1429,22 +1457,22 @@
     <t>Practitioner.qualification.identifier.type</t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -1519,7 +1547,7 @@
 - urn:oid:1.2.392.100495.20.3.32.147(沖縄県)</t>
   </si>
   <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1546,7 +1574,7 @@
     <t>都道府県別　麻薬施用者免許番号 【詳細参照】</t>
   </si>
   <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
     <t>都道府県別　麻薬施用者免許番号</t>
@@ -1570,10 +1598,10 @@
     <t>Practitioner.qualification.identifier.period</t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -1595,13 +1623,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -1619,7 +1647,7 @@
     <t>Practitioner.qualification:narcoticPrescriptionLicenseNumber.code</t>
   </si>
   <si>
-    <t>Coded representation of the qualification.</t>
+    <t>資格のコード化された表現。 / Coded representation of the qualification.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1636,16 +1664,16 @@
     <t>Practitioner.qualification:narcoticPrescriptionLicenseNumber.period</t>
   </si>
   <si>
-    <t>Period during which the qualification is valid.</t>
-  </si>
-  <si>
-    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
+    <t>資格が有効な期間。 / Period during which the qualification is valid.</t>
+  </si>
+  <si>
+    <t>資格は多くの場合、限られた期間であり、取り消すことができます。 / Qualifications are often for a limited period of time, and can be revoked.</t>
   </si>
   <si>
     <t>Practitioner.qualification:narcoticPrescriptionLicenseNumber.issuer</t>
   </si>
   <si>
-    <t>Organization that regulates and issues the qualification.</t>
+    <t>資格を規制および発行する組織。 / Organization that regulates and issues the qualification.</t>
   </si>
   <si>
     <t>Practitioner.qualification:medicalRegistrationNumber</t>
@@ -1684,13 +1712,13 @@
     <t>Practitioner.qualification:medicalRegistrationNumber.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.31</t>
@@ -2086,7 +2114,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="60.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3858,13 +3886,13 @@
         <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3902,19 +3930,19 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3926,7 +3954,7 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -3943,10 +3971,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3972,10 +4000,10 @@
         <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4002,13 +4030,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -4026,7 +4054,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4035,19 +4063,19 @@
         <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4055,10 +4083,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4084,16 +4112,16 @@
         <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4142,7 +4170,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4154,16 +4182,16 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4171,10 +4199,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4200,16 +4228,16 @@
         <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -4234,13 +4262,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -4258,7 +4286,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4270,16 +4298,16 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4287,10 +4315,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4313,16 +4341,16 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4372,7 +4400,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4384,7 +4412,7 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>188</v>
@@ -4401,10 +4429,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4427,16 +4455,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4486,7 +4514,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4498,16 +4526,16 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4515,10 +4543,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4541,19 +4569,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4602,7 +4630,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4617,13 +4645,13 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4631,10 +4659,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4660,10 +4688,10 @@
         <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4743,10 +4771,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4775,7 +4803,7 @@
         <v>135</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>137</v>
@@ -4816,19 +4844,19 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4857,10 +4885,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4886,16 +4914,16 @@
         <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4908,7 +4936,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -4920,13 +4948,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4944,7 +4972,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4959,13 +4987,13 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4973,10 +5001,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5002,13 +5030,13 @@
         <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5022,7 +5050,7 @@
         <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>78</v>
@@ -5034,13 +5062,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5058,7 +5086,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5073,10 +5101,10 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -5087,10 +5115,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5116,16 +5144,16 @@
         <v>184</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5138,7 +5166,7 @@
         <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>78</v>
@@ -5174,7 +5202,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5189,10 +5217,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5203,10 +5231,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5232,10 +5260,10 @@
         <v>184</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5250,7 +5278,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -5286,7 +5314,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5301,13 +5329,13 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5315,14 +5343,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5344,10 +5372,10 @@
         <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5362,7 +5390,7 @@
         <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>78</v>
@@ -5398,7 +5426,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5413,13 +5441,13 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5427,14 +5455,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5456,13 +5484,13 @@
         <v>184</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5476,7 +5504,7 @@
         <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>78</v>
@@ -5512,7 +5540,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5527,10 +5555,10 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5541,14 +5569,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5570,10 +5598,10 @@
         <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5624,7 +5652,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5639,13 +5667,13 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5653,14 +5681,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5682,10 +5710,10 @@
         <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5700,7 +5728,7 @@
         <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>78</v>
@@ -5736,7 +5764,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5751,13 +5779,13 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5765,10 +5793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5794,13 +5822,13 @@
         <v>184</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5850,7 +5878,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5865,13 +5893,13 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5879,10 +5907,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5905,19 +5933,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5930,7 +5958,7 @@
         <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>78</v>
@@ -5966,7 +5994,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5981,13 +6009,13 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5995,10 +6023,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6024,14 +6052,14 @@
         <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6056,13 +6084,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6080,7 +6108,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6095,13 +6123,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6109,10 +6137,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6135,17 +6163,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6194,7 +6222,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6209,13 +6237,13 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6223,10 +6251,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6249,19 +6277,19 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6310,7 +6338,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6328,10 +6356,10 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6339,10 +6367,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6365,16 +6393,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6412,17 +6440,17 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6437,13 +6465,13 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6451,10 +6479,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6480,10 +6508,10 @@
         <v>184</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6563,10 +6591,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6595,7 +6623,7 @@
         <v>135</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>137</v>
@@ -6648,7 +6676,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6677,14 +6705,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6706,10 +6734,10 @@
         <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>137</v>
@@ -6764,7 +6792,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6793,10 +6821,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6822,14 +6850,14 @@
         <v>146</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6878,7 +6906,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6896,7 +6924,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6907,10 +6935,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6933,16 +6961,16 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6968,13 +6996,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6992,7 +7020,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>88</v>
@@ -7010,10 +7038,10 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7021,10 +7049,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7047,19 +7075,19 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7108,7 +7136,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7126,10 +7154,10 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7137,10 +7165,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7163,16 +7191,16 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7222,7 +7250,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7240,7 +7268,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7251,13 +7279,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
@@ -7267,7 +7295,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7279,13 +7307,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7336,7 +7364,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7351,13 +7379,13 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7365,10 +7393,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7394,10 +7422,10 @@
         <v>184</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7477,10 +7505,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7509,7 +7537,7 @@
         <v>135</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>137</v>
@@ -7562,7 +7590,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7591,14 +7619,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7620,10 +7648,10 @@
         <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>137</v>
@@ -7678,7 +7706,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7707,10 +7735,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7736,14 +7764,14 @@
         <v>146</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7792,7 +7820,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7810,7 +7838,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7821,10 +7849,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7850,10 +7878,10 @@
         <v>184</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7933,10 +7961,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7965,7 +7993,7 @@
         <v>135</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>137</v>
@@ -8006,19 +8034,19 @@
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8047,10 +8075,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8076,16 +8104,16 @@
         <v>108</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8110,13 +8138,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8134,7 +8162,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8152,7 +8180,7 @@
         <v>131</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8163,10 +8191,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8189,19 +8217,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8226,13 +8254,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8250,7 +8278,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8265,10 +8293,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8279,10 +8307,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8308,16 +8336,16 @@
         <v>102</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8330,7 +8358,7 @@
         <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>78</v>
@@ -8366,7 +8394,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8381,13 +8409,13 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8395,10 +8423,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8424,13 +8452,13 @@
         <v>184</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8444,7 +8472,7 @@
         <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>78</v>
@@ -8480,7 +8508,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8495,13 +8523,13 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8509,10 +8537,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8535,13 +8563,13 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8592,7 +8620,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8607,13 +8635,13 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8621,10 +8649,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8647,16 +8675,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8706,7 +8734,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8721,13 +8749,13 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8735,10 +8763,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8761,13 +8789,13 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8779,7 +8807,7 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>78</v>
@@ -8794,11 +8822,11 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8816,7 +8844,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>88</v>
@@ -8834,10 +8862,10 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8845,10 +8873,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8871,17 +8899,17 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8930,7 +8958,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8948,10 +8976,10 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8959,10 +8987,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8985,13 +9013,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9042,7 +9070,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9060,7 +9088,7 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -9071,13 +9099,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>78</v>
@@ -9099,13 +9127,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9156,7 +9184,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9171,13 +9199,13 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9185,10 +9213,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9214,10 +9242,10 @@
         <v>184</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9297,10 +9325,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9329,7 +9357,7 @@
         <v>135</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>137</v>
@@ -9382,7 +9410,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9411,14 +9439,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9440,10 +9468,10 @@
         <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>137</v>
@@ -9498,7 +9526,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9527,10 +9555,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9556,14 +9584,14 @@
         <v>146</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9612,7 +9640,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9630,7 +9658,7 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9641,10 +9669,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9670,10 +9698,10 @@
         <v>184</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9753,10 +9781,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9785,7 +9813,7 @@
         <v>135</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>137</v>
@@ -9826,19 +9854,19 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9867,10 +9895,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9896,16 +9924,16 @@
         <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9930,13 +9958,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9954,7 +9982,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9972,7 +10000,7 @@
         <v>131</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9983,10 +10011,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10009,19 +10037,19 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10046,13 +10074,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10070,7 +10098,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10085,10 +10113,10 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10099,10 +10127,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10128,29 +10156,29 @@
         <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>78</v>
@@ -10186,7 +10214,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10201,13 +10229,13 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10215,10 +10243,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10244,13 +10272,13 @@
         <v>184</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10264,7 +10292,7 @@
         <v>78</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>78</v>
@@ -10300,7 +10328,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10315,13 +10343,13 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10329,10 +10357,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10355,13 +10383,13 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10412,7 +10440,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10427,13 +10455,13 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10441,10 +10469,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10467,16 +10495,16 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10526,7 +10554,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10541,13 +10569,13 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10555,10 +10583,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10581,13 +10609,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10599,7 +10627,7 @@
         <v>78</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>78</v>
@@ -10614,11 +10642,11 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -10636,7 +10664,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>88</v>
@@ -10654,10 +10682,10 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10665,10 +10693,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10691,17 +10719,17 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10750,7 +10778,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10768,10 +10796,10 @@
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10779,10 +10807,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10805,13 +10833,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10862,7 +10890,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10880,7 +10908,7 @@
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -10891,10 +10919,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10917,19 +10945,19 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -10978,7 +11006,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10993,13 +11021,13 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -762,9 +762,6 @@
     <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>アドレスの使用。 / The use of an address.</t>
   </si>
   <si>
@@ -792,9 +789,6 @@
     <t>住所の定義は、「住所は物理的な場所ではなく、郵便アドレスを記述することを目的としている」と述べています。ただし、多くのアプリケーションは、住所が訪問できる場所であるという二重の目的を持っているかどうか、有効な配達先であるかどうかを追跡し、郵便アドレスは物理的な場所のプロキシとしてよく使用されます（[場所]（場所を参照してください。HTML＃）リソース）。 / The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
-    <t>both</t>
-  </si>
-  <si>
     <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
   </si>
   <si>
@@ -822,9 +816,6 @@
     <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
     <t>Address.text</t>
   </si>
   <si>
@@ -841,9 +832,6 @@
   </si>
   <si>
     <t>このコンポーネントには、家番号、アパート番号、ストリート名、通りの方向、P.O。ボックス番号、配信ヒント、および同様のアドレス情報。 / This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
   </si>
   <si>
     <t>Address.line</t>
@@ -871,9 +859,6 @@
     <t>都市、町、郊外、村、またはその他のコミュニティまたは配達センターの名前。 / The name of the city, town, suburb, village or other community or delivery center.</t>
   </si>
   <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
     <t>Address.city</t>
   </si>
   <si>
@@ -902,9 +887,6 @@
     <t>地区は郡として知られていることもありますが、一部の地域では「郡」は都市（自治体）の代わりに使用されているため、代わりに郡の名前を都市で伝える必要があります。 / District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
   </si>
   <si>
-    <t>Madison</t>
-  </si>
-  <si>
     <t>Address.district</t>
   </si>
   <si>
@@ -952,9 +934,6 @@
     <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
-    <t>9132</t>
-  </si>
-  <si>
     <t>Address.postalCode</t>
   </si>
   <si>
@@ -1001,12 +980,6 @@
   </si>
   <si>
     <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
   </si>
   <si>
     <t>Address.period</t>
@@ -1430,9 +1403,6 @@
     <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -1458,9 +1428,6 @@
   </si>
   <si>
     <t>都道府県別　麻薬施用者免許番号</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -1988,7 +1955,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -4693,7 +4660,7 @@
         <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>38</v>
@@ -4708,28 +4675,28 @@
         <v>161</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4744,13 +4711,13 @@
         <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>188</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4758,10 +4725,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4787,13 +4754,13 @@
         <v>68</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4807,7 +4774,7 @@
         <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>38</v>
@@ -4822,28 +4789,28 @@
         <v>161</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4858,7 +4825,7 @@
         <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>188</v>
@@ -4872,10 +4839,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4901,16 +4868,16 @@
         <v>144</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4923,7 +4890,7 @@
         <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>38</v>
@@ -4959,7 +4926,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4974,10 +4941,10 @@
         <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4988,10 +4955,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5017,10 +4984,10 @@
         <v>144</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5035,7 +5002,7 @@
         <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>38</v>
@@ -5071,7 +5038,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5086,13 +5053,13 @@
         <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -5100,14 +5067,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5129,10 +5096,10 @@
         <v>144</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5147,7 +5114,7 @@
         <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>38</v>
@@ -5183,7 +5150,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5198,13 +5165,13 @@
         <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5212,14 +5179,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5241,13 +5208,13 @@
         <v>144</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5261,7 +5228,7 @@
         <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>38</v>
@@ -5297,7 +5264,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5312,10 +5279,10 @@
         <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5326,14 +5293,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5355,10 +5322,10 @@
         <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5409,7 +5376,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5424,13 +5391,13 @@
         <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5438,14 +5405,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5467,10 +5434,10 @@
         <v>144</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5485,7 +5452,7 @@
         <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>38</v>
@@ -5521,7 +5488,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5536,13 +5503,13 @@
         <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -5550,10 +5517,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5579,13 +5546,13 @@
         <v>144</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5635,7 +5602,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5650,13 +5617,13 @@
         <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5664,10 +5631,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5693,16 +5660,16 @@
         <v>197</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>200</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5715,7 +5682,7 @@
         <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>38</v>
@@ -5751,7 +5718,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5766,7 +5733,7 @@
         <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>202</v>
@@ -5780,10 +5747,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5809,14 +5776,14 @@
         <v>68</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5844,10 +5811,10 @@
         <v>161</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5865,7 +5832,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5880,13 +5847,13 @@
         <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5894,10 +5861,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5920,17 +5887,17 @@
         <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5979,7 +5946,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5994,13 +5961,13 @@
         <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
@@ -6008,10 +5975,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6034,19 +6001,19 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6095,7 +6062,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6113,10 +6080,10 @@
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -6124,10 +6091,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6150,16 +6117,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6197,7 +6164,7 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
@@ -6207,7 +6174,7 @@
         <v>155</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6222,13 +6189,13 @@
         <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6236,10 +6203,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6348,10 +6315,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6462,14 +6429,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6491,10 +6458,10 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>97</v>
@@ -6549,7 +6516,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6578,10 +6545,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6607,14 +6574,14 @@
         <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6663,7 +6630,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6681,7 +6648,7 @@
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6692,10 +6659,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6718,16 +6685,16 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6753,13 +6720,13 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -6777,7 +6744,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>48</v>
@@ -6795,10 +6762,10 @@
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6806,10 +6773,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6835,16 +6802,16 @@
         <v>197</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6893,7 +6860,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6911,10 +6878,10 @@
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6922,10 +6889,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6948,16 +6915,16 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7007,7 +6974,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7025,7 +6992,7 @@
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -7036,13 +7003,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>38</v>
@@ -7052,7 +7019,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -7064,13 +7031,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7121,7 +7088,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7136,13 +7103,13 @@
         <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -7150,10 +7117,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7262,10 +7229,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7376,14 +7343,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7405,10 +7372,10 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>97</v>
@@ -7463,7 +7430,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7492,10 +7459,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7521,14 +7488,14 @@
         <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7577,7 +7544,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7595,7 +7562,7 @@
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7606,10 +7573,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7718,10 +7685,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7832,10 +7799,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7861,16 +7828,16 @@
         <v>68</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7898,10 +7865,10 @@
         <v>161</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7919,7 +7886,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7937,7 +7904,7 @@
         <v>91</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7948,10 +7915,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7974,19 +7941,19 @@
         <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -8011,13 +7978,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -8035,7 +8002,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8050,10 +8017,10 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -8064,10 +8031,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8093,16 +8060,16 @@
         <v>62</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8115,7 +8082,7 @@
         <v>38</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>417</v>
+        <v>38</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>38</v>
@@ -8151,7 +8118,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8166,13 +8133,13 @@
         <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -8180,10 +8147,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8209,13 +8176,13 @@
         <v>144</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8229,7 +8196,7 @@
         <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>427</v>
+        <v>38</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>38</v>
@@ -8265,7 +8232,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8280,10 +8247,10 @@
         <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>178</v>
@@ -8294,10 +8261,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8323,10 +8290,10 @@
         <v>197</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8377,7 +8344,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8392,10 +8359,10 @@
         <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>203</v>
@@ -8406,10 +8373,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8432,16 +8399,16 @@
         <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8491,7 +8458,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8506,13 +8473,13 @@
         <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8520,10 +8487,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8546,13 +8513,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8564,7 +8531,7 @@
         <v>38</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>38</v>
@@ -8583,7 +8550,7 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8601,7 +8568,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>48</v>
@@ -8619,10 +8586,10 @@
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8630,10 +8597,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8659,14 +8626,14 @@
         <v>197</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8715,7 +8682,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8733,10 +8700,10 @@
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8744,10 +8711,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8770,13 +8737,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8827,7 +8794,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8845,7 +8812,7 @@
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -8856,13 +8823,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>38</v>
@@ -8884,13 +8851,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8941,7 +8908,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8956,13 +8923,13 @@
         <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8970,10 +8937,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9082,10 +9049,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9196,14 +9163,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9225,10 +9192,10 @@
         <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>97</v>
@@ -9283,7 +9250,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9312,10 +9279,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9341,14 +9308,14 @@
         <v>106</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9397,7 +9364,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9415,7 +9382,7 @@
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
@@ -9426,10 +9393,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9538,10 +9505,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9652,10 +9619,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9681,16 +9648,16 @@
         <v>68</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -9718,10 +9685,10 @@
         <v>161</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -9739,7 +9706,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9757,7 +9724,7 @@
         <v>91</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
@@ -9768,10 +9735,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9794,19 +9761,19 @@
         <v>49</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -9831,13 +9798,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -9855,7 +9822,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9870,10 +9837,10 @@
         <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
@@ -9884,10 +9851,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9913,29 +9880,29 @@
         <v>62</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>417</v>
+        <v>38</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>38</v>
@@ -9971,7 +9938,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9986,13 +9953,13 @@
         <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>38</v>
@@ -10000,10 +9967,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10029,13 +9996,13 @@
         <v>144</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10049,7 +10016,7 @@
         <v>38</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>427</v>
+        <v>38</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>38</v>
@@ -10085,7 +10052,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10100,10 +10067,10 @@
         <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>178</v>
@@ -10114,10 +10081,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10143,10 +10110,10 @@
         <v>197</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10197,7 +10164,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10212,10 +10179,10 @@
         <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>203</v>
@@ -10226,10 +10193,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10252,16 +10219,16 @@
         <v>49</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10311,7 +10278,7 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10326,13 +10293,13 @@
         <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>38</v>
@@ -10340,10 +10307,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10366,13 +10333,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10384,7 +10351,7 @@
         <v>38</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>38</v>
@@ -10403,7 +10370,7 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>38</v>
@@ -10421,7 +10388,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>48</v>
@@ -10439,10 +10406,10 @@
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>38</v>
@@ -10450,10 +10417,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10479,14 +10446,14 @@
         <v>197</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10535,7 +10502,7 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -10553,10 +10520,10 @@
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10564,10 +10531,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10590,13 +10557,13 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10647,7 +10614,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10665,7 +10632,7 @@
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
@@ -10676,10 +10643,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10702,19 +10669,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -10763,7 +10730,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10778,13 +10745,13 @@
         <v>60</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -147,6 +147,10 @@
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.
 医療の提供に直接または間接的に関与する者をいう。</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -2074,16 +2078,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -2091,10 +2095,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2105,7 +2109,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2114,19 +2118,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2176,13 +2180,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2205,10 +2209,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2219,7 +2223,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2228,16 +2232,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2288,19 +2292,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2317,10 +2321,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2331,28 +2335,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2402,19 +2406,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2431,10 +2435,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2445,7 +2449,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2457,16 +2461,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2492,13 +2496,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2516,19 +2520,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2545,21 +2549,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2571,16 +2575,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2630,25 +2634,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2659,14 +2663,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2685,16 +2689,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2744,7 +2748,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2762,7 +2766,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2773,14 +2777,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2799,16 +2803,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2858,7 +2862,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2870,13 +2874,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2887,14 +2891,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2907,25 +2911,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2974,7 +2978,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2986,13 +2990,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -3003,10 +3007,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3026,22 +3030,22 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3090,7 +3094,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3102,27 +3106,27 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3133,7 +3137,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3142,105 +3146,105 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q11" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="P11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q11" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3263,19 +3267,19 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -3324,7 +3328,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3333,19 +3337,19 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>38</v>
@@ -3353,10 +3357,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3376,22 +3380,22 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3440,7 +3444,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3452,16 +3456,16 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>38</v>
@@ -3469,10 +3473,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3483,7 +3487,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3495,13 +3499,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3552,13 +3556,13 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
@@ -3570,7 +3574,7 @@
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3581,14 +3585,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3607,16 +3611,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3654,19 +3658,19 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3678,13 +3682,13 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3695,10 +3699,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3709,7 +3713,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3718,16 +3722,16 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3754,13 +3758,13 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -3778,28 +3782,28 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>38</v>
@@ -3807,10 +3811,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3821,7 +3825,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3830,22 +3834,22 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3894,28 +3898,28 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
@@ -3923,10 +3927,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3937,31 +3941,31 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3986,13 +3990,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -4010,28 +4014,28 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -4039,10 +4043,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4053,7 +4057,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -4062,19 +4066,19 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4124,25 +4128,25 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -4153,10 +4157,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4167,7 +4171,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -4176,19 +4180,19 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4238,28 +4242,28 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -4267,10 +4271,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4290,22 +4294,22 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4354,7 +4358,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4366,16 +4370,16 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -4383,10 +4387,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4397,7 +4401,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4409,13 +4413,13 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4466,13 +4470,13 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
@@ -4484,7 +4488,7 @@
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -4495,14 +4499,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4521,16 +4525,16 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4568,19 +4572,19 @@
         <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4592,13 +4596,13 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4609,10 +4613,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4623,31 +4627,31 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4672,13 +4676,13 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>38</v>
@@ -4696,28 +4700,28 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4725,10 +4729,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4739,7 +4743,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4748,19 +4752,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4786,13 +4790,13 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4810,25 +4814,25 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4839,10 +4843,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4853,7 +4857,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4862,22 +4866,22 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4926,25 +4930,25 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4955,10 +4959,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4978,16 +4982,16 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5038,7 +5042,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5050,16 +5054,16 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -5067,21 +5071,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -5090,16 +5094,16 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5150,28 +5154,28 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5179,21 +5183,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -5202,19 +5206,19 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5264,25 +5268,25 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5293,21 +5297,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5316,16 +5320,16 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5376,28 +5380,28 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5405,21 +5409,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5428,16 +5432,16 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5488,28 +5492,28 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -5517,10 +5521,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5531,7 +5535,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5540,19 +5544,19 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5602,28 +5606,28 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5631,10 +5635,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5645,7 +5649,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5654,22 +5658,22 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5718,28 +5722,28 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5747,10 +5751,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5761,7 +5765,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5770,20 +5774,20 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5808,13 +5812,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5832,28 +5836,28 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5861,10 +5865,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5875,7 +5879,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5884,20 +5888,20 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5946,28 +5950,28 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
@@ -5975,10 +5979,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6001,19 +6005,19 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6062,7 +6066,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6074,16 +6078,16 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -6091,10 +6095,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6117,16 +6121,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6164,17 +6168,17 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6186,16 +6190,16 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6203,10 +6207,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6217,7 +6221,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6229,13 +6233,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6286,13 +6290,13 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
@@ -6304,7 +6308,7 @@
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6315,14 +6319,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6341,16 +6345,16 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6400,7 +6404,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6412,13 +6416,13 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
@@ -6429,14 +6433,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6449,25 +6453,25 @@
         <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6516,7 +6520,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6528,13 +6532,13 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6545,10 +6549,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6571,17 +6575,17 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6630,7 +6634,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6642,13 +6646,13 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6659,10 +6663,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6670,10 +6674,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6685,16 +6689,16 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6720,13 +6724,13 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -6744,28 +6748,28 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6773,10 +6777,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6787,7 +6791,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6799,19 +6803,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6860,28 +6864,28 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6889,10 +6893,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6903,7 +6907,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6915,16 +6919,16 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6974,25 +6978,25 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -7003,13 +7007,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>38</v>
@@ -7019,7 +7023,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -7031,13 +7035,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7088,7 +7092,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7100,16 +7104,16 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -7117,10 +7121,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7131,7 +7135,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7143,13 +7147,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7200,13 +7204,13 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
@@ -7218,7 +7222,7 @@
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7229,14 +7233,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7255,16 +7259,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7314,7 +7318,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7326,13 +7330,13 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7343,14 +7347,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7363,25 +7367,25 @@
         <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7430,7 +7434,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7442,13 +7446,13 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7459,10 +7463,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7485,17 +7489,17 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7544,7 +7548,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7556,13 +7560,13 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7573,10 +7577,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7587,7 +7591,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7599,13 +7603,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7656,13 +7660,13 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
@@ -7674,7 +7678,7 @@
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
@@ -7685,14 +7689,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7711,16 +7715,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7758,19 +7762,19 @@
         <v>38</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7782,13 +7786,13 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7799,10 +7803,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7813,31 +7817,31 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7862,13 +7866,13 @@
         <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7886,25 +7890,25 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7915,10 +7919,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7929,7 +7933,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -7938,22 +7942,22 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7978,13 +7982,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -8002,25 +8006,25 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -8031,10 +8035,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8045,7 +8049,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -8054,22 +8058,22 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8118,28 +8122,28 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -8147,10 +8151,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8161,7 +8165,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8170,19 +8174,19 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8232,28 +8236,28 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8261,10 +8265,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8275,7 +8279,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8284,16 +8288,16 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8344,28 +8348,28 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
@@ -8373,10 +8377,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8387,7 +8391,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8396,19 +8400,19 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8458,28 +8462,28 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8487,10 +8491,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8498,10 +8502,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8513,13 +8517,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8531,7 +8535,7 @@
         <v>38</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>38</v>
@@ -8546,11 +8550,11 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8568,28 +8572,28 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8597,10 +8601,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8611,7 +8615,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8623,17 +8627,17 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8682,28 +8686,28 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8711,10 +8715,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8725,7 +8729,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8737,13 +8741,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8794,25 +8798,25 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -8823,13 +8827,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>38</v>
@@ -8839,7 +8843,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8851,13 +8855,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8908,7 +8912,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8920,16 +8924,16 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8937,10 +8941,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8951,7 +8955,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8963,13 +8967,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9020,13 +9024,13 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
@@ -9038,7 +9042,7 @@
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
@@ -9049,14 +9053,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9075,16 +9079,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9134,7 +9138,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9146,13 +9150,13 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9163,14 +9167,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9183,25 +9187,25 @@
         <v>38</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -9250,7 +9254,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9262,13 +9266,13 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
@@ -9279,10 +9283,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9305,17 +9309,17 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9364,7 +9368,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9376,13 +9380,13 @@
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
@@ -9393,10 +9397,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9407,7 +9411,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9419,13 +9423,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9476,13 +9480,13 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
@@ -9494,7 +9498,7 @@
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
@@ -9505,14 +9509,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9531,16 +9535,16 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9578,19 +9582,19 @@
         <v>38</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9602,13 +9606,13 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
@@ -9619,10 +9623,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9633,31 +9637,31 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -9682,13 +9686,13 @@
         <v>38</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -9706,25 +9710,25 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
@@ -9735,10 +9739,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9749,7 +9753,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -9758,22 +9762,22 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -9798,13 +9802,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -9822,25 +9826,25 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
@@ -9851,10 +9855,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9865,7 +9869,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -9874,29 +9878,29 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>38</v>
@@ -9938,28 +9942,28 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>38</v>
@@ -9967,10 +9971,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9981,7 +9985,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -9990,19 +9994,19 @@
         <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10052,28 +10056,28 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>38</v>
@@ -10081,10 +10085,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10095,7 +10099,7 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>38</v>
@@ -10104,16 +10108,16 @@
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10164,28 +10168,28 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>38</v>
@@ -10193,10 +10197,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10207,7 +10211,7 @@
         <v>39</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -10216,19 +10220,19 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10278,28 +10282,28 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>38</v>
@@ -10307,10 +10311,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10318,10 +10322,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>38</v>
@@ -10333,13 +10337,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10351,7 +10355,7 @@
         <v>38</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>38</v>
@@ -10366,11 +10370,11 @@
         <v>38</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>38</v>
@@ -10388,28 +10392,28 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>38</v>
@@ -10417,10 +10421,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10431,7 +10435,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -10443,17 +10447,17 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10502,28 +10506,28 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10531,10 +10535,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10545,7 +10549,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>38</v>
@@ -10557,13 +10561,13 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10614,25 +10618,25 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
@@ -10643,10 +10647,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10669,19 +10673,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -10706,13 +10710,13 @@
         <v>38</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>38</v>
@@ -10730,7 +10734,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10742,16 +10746,16 @@
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="488">
   <si>
     <t>Property</t>
   </si>
@@ -376,8 +376,7 @@
 例：http://www.abd-hospital.co.jp/practitioner-system</t>
   </si>
   <si>
-    <t>Often, specific identities are assigned for the agent.
-多くの場合、エージェントには特定の識別子が割り当てられている。</t>
+    <t>多くの場合、エージェントには特定の識別子が割り当てられている。</t>
   </si>
   <si>
     <t>PRD-7 (or XCN.1)</t>
@@ -402,16 +401,13 @@
     <t>この開業医の記録が積極的に使用されているかどうか / Whether this practitioner's record is in active use</t>
   </si>
   <si>
-    <t>Whether this practitioner's record is in active use.
-この医療従事者の記録がアクティブに使用されているかどうかを示す。</t>
-  </si>
-  <si>
-    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitionerRole with an end date (even if they are active) as they may be active in another role.
-医療従事者がある組織で使用されていない場合、別のロールでアクティブになっている可能性があるので、(例えそれらがアクティブであっても)PractitionerRoleに有効期間を終了日でマークしておく必要がある。</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.
-医療従事者のレコードを誤って作成してしまったとき、使用しないようにマークできるようにする必要がある。</t>
+    <t>この医療従事者の記録がアクティブに使用されているかどうかを示す。</t>
+  </si>
+  <si>
+    <t>医療従事者がある組織で使用されていない場合、別のロールでアクティブになっている可能性があるので、(例えそれらがアクティブであっても)PractitionerRoleに有効期間を終了日でマークしておく必要がある。</t>
+  </si>
+  <si>
+    <t>医療従事者のレコードを誤って作成してしまったとき、使用しないようにマークできるようにする必要がある。</t>
   </si>
   <si>
     <t>このリソースは、アクティブな要素の値が提供されていない場合、一般にアクティブであると想定されています / This resource is generally assumed to be active if no value is provided for the active element</t>
@@ -430,35 +426,24 @@
 </t>
   </si>
   <si>
-    <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
-  </si>
-  <si>
-    <t>The name(s) associated with the practitioner.
-医療従事者の氏名（複数の場合もある）</t>
-  </si>
-  <si>
-    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  --In general, select the value to be used in the ResourceReference.display based on this:--1. There is more than 1 name-2. Use = usual-3. Period is current to the date of the usage-4. Use = official-5. Other order as decided by internal business rules.
-useプロパティの選択は、指定された単一の通常の名前があることを保証しなければならず、他の値はニックネーム（別名）、旧名、または他の値を適切に使用する。
+    <t>人の名前情報、その一部分と使い方</t>
+  </si>
+  <si>
+    <t>医療従事者の氏名（複数の場合もある）</t>
+  </si>
+  <si>
+    <t>プロパティの選択は、指定された単一の通常の名前があることを保証しなければならず、他の値はニックネーム（別名）、旧名、または他の値を適切に使用する。
 一般的には、以下を基準にResourceReference.displayで使用する値を選択する。
- 1. There is more than 1 name（最低限1つ以上の名前があること）
- 2. Use = usual（useプロパティが「usual」であること）
- 3. Period is current to the date of the usage（有効期限は利用開始日から現在まであること）
- 4. Use = official（useプロパティが「official」であること
- 5. Other order as decided by internal business rules.（その他、内部ルールで決められた順番）
+ 1. 最低限1つ以上の名前があること
+ 2.useプロパティが「usual」であること
+ 3. 有効期限は利用開始日から現在まであること
+ 4. useプロパティが「official」であること
+ 5. その他、内部ルールで決められた順番）
 医療従事者のNameの漢字カナ表記については、JP_Patient.nameで採用した方法を踏襲する。
 そのほか、要素の説明は、JP_Patient.nameを参照。</t>
   </si>
   <si>
-    <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.
-医療従事者が知られている名前。複数ある場合は、従事者が通常知られている名前を表示に使用する。</t>
+    <t>医療従事者が知られている名前。複数ある場合は、従事者が通常知られている名前を表示に使用する。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -481,20 +466,17 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the practitioner (that apply to all roles)　電話番号やメールアドレスなど、従事者への詳細な連絡先</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.
-電話番号やメールアドレスなど、従事者への詳細な連絡先。</t>
-  </si>
-  <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.
-人は、異なる用途や適用される期間に応じて複数の連絡方法を持っている可能性がある。本人に緊急に連絡を取るためのオプションが必要な場合があり、また本人の身元確認に役立つ場合がある。これらは通常、自宅の電話番号、または役割が特定されていない携帯電話番号を持つことになる。
+    <t>電話番号やメールアドレスなど、従事者への詳細な連絡先</t>
+  </si>
+  <si>
+    <t>電話番号やメールアドレスなど、従事者への詳細な連絡先。</t>
+  </si>
+  <si>
+    <t>異なる用途や適用される期間に応じて複数の連絡方法を持っている可能性がある。本人に緊急に連絡を取るためのオプションが必要な場合があり、また本人の身元確認に役立つ場合がある。これらは通常、自宅の電話番号、または役割が特定されていない携帯電話番号を持つことになる。
 要素の説明は、JP_Patient.telecomを参照。</t>
   </si>
   <si>
-    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.
-医療従事者が持っているかもしれない任意の役割ごとに独立した連絡方法を知る必要がある。</t>
+    <t>医療従事者が持っているかもしれない任意の役割ごとに独立した連絡方法を知る必要がある。</t>
   </si>
   <si>
     <t>PRT-15, STF-10, ROL-12</t>
@@ -557,10 +539,13 @@
     <t>Practitioner.telecom.system</t>
   </si>
   <si>
-    <t>電話 | ファックス | メール | ページャー | URL | SMS | その他</t>
+    <t>phone | fax | email | pager | url | sms | other 【JP_Patient.telecomを参照。】</t>
   </si>
   <si>
     <t>連絡先用通信フォーム - どの通信システムを使用するには接点が必要ですか。</t>
+  </si>
+  <si>
+    <t>連絡先の種別をValueSet(ContactPointSystem)より選択する。  　- phone : 電話　- fax : Fax 　- email : 電子メール　- pager : ポケットベル　- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。　- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  　- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
     <t>required</t>
@@ -601,7 +586,7 @@
     <t>指定されたコミュニケーションシステムに意味がある形式での実際の連絡先の詳細（電話番号または電子メールアドレス）を提供してください。</t>
   </si>
   <si>
-    <t>"電話番号の内線や、その連絡先の使用に関するメモなど、追加のテキストデータが値に含まれる場合があります。"</t>
+    <t>連絡先の番号やメールアドレス</t>
   </si>
   <si>
     <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
@@ -622,13 +607,18 @@
     <t>Practitioner.telecom.use</t>
   </si>
   <si>
-    <t>「家 | 仕事 | 一時的 | 古い | 携帯電話 - この連絡先の目的」(Ie | Shigoto | Ichijiteki | Furui | Keitaidenwa - Kono renrakusaki no mokuteki)</t>
+    <t>home | work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】</t>
   </si>
   <si>
     <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
   </si>
   <si>
-    <t>「アプリケーションは、一時的なものまたは古いものであると明示しない限り、連絡先が最新であると想定できます。」</t>
+    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。
+　- home : 自宅
+　- work : 職場
+　- temp : 一時的
+　- old : 以前の
+　- mobile : モバイル機器</t>
   </si>
   <si>
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
@@ -665,7 +655,7 @@
     <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
   </si>
   <si>
-    <t>「ランクは、インスタンス内で連絡先が表示される順序に必ずしも従わないことに注意してください。」</t>
+    <t>連絡先の使用順序（1 = 最高）</t>
   </si>
   <si>
     <t>ContactPoint.rank</t>
@@ -684,10 +674,7 @@
     <t>「接点が使用されていた/現在使用中である時間期間」</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
-期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に与える」）を指定する。
-期間は、時間間隔（経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
+    <t>連絡先が使用されていた/されている期間</t>
   </si>
   <si>
     <t>ContactPoint.period</t>
@@ -706,22 +693,21 @@
 </t>
   </si>
   <si>
-    <t>Address(es) of the practitioner that are not role specific (typically home address)　役割が特定されていない従事者の住所（通常は自宅の住所）</t>
-  </si>
-  <si>
-    <t>Address(es) of the practitioner that are not role specific (typically home address). -Work addresses are not typically entered in this property as they are usually role dependent.
-役割が特定されていない従事者の住所（通常は自宅の住所）。
+    <t>役割が特定されていない従事者の住所（通常は自宅の住所）</t>
+  </si>
+  <si>
+    <t>役割が特定されていない従事者の住所（通常は自宅の住所）。
 勤務先の住所は通常、役割に依存するため、このプロパティには入力されない。</t>
   </si>
   <si>
-    <t>The PractitionerRole does not have an address value on it, as it is expected that the location property be used for this purpose (which has an address).
-PractitionerRoleにアドレス値が付いていないのは、この目的のためにロケーションプロパティを使用することが想定されているからである（アドレスが付いている）。
-要素の説明は、JP_Patient.address を参照。</t>
-  </si>
-  <si>
-    <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.
-医療従事者の自宅/メールアドレスは、従業員管理のために必要とされることが多く、また、一部のロスタリングサービスでは、開始点（医療従事者の自宅）が計算に使用されることがある。</t>
+    <t>患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
+【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。  
+　- 住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する
+　- 住所が構造化されていない場合は、Address.text に記述する
+　- 各住所パートとtext は、両方存在してもよい</t>
+  </si>
+  <si>
+    <t>医療従事者の自宅/メールアドレスは、従業員管理のために必要とされることが多く、また、一部のロスタリングサービスでは、開始点（医療従事者の自宅）が計算に使用されることがある。</t>
   </si>
   <si>
     <t>ORC-24, STF-11, ROL-11, PRT-14</t>
@@ -754,13 +740,19 @@
     <t>Practitioner.address.use</t>
   </si>
   <si>
-    <t>ホーム|作業|温度|古い|請求 - この住所の目的 / home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>このアドレスの目的。 / The purpose of this address.</t>
-  </si>
-  <si>
-    <t>アプリケーションは、一時的または古いものであると明示的に言わない限り、住所が最新であると想定できます。 / Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+    <t>home | work | temp | old | billing - purpose of this address　住所の用途 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>The purpose of this address.
+住所の用途</t>
+  </si>
+  <si>
+    <t>住所の用途をValueSet(AddressUse)より選択する。  
+- home : 自宅
+- work : 職場
+- temp : 一時的
+- old : 以前の
+- billing : 請求書、インボイス、領収書などの送付用</t>
   </si>
   <si>
     <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
@@ -784,13 +776,16 @@
     <t>Practitioner.address.type</t>
   </si>
   <si>
-    <t>郵便|物理|両方 / postal | physical | both</t>
-  </si>
-  <si>
-    <t>物理的な住所（アクセスできるもの）と郵送先住所（例：POボックスやアドレスのケア）を区別します。ほとんどのアドレスは両方です。 / Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>住所の定義は、「住所は物理的な場所ではなく、郵便アドレスを記述することを目的としている」と述べています。ただし、多くのアプリケーションは、住所が訪問できる場所であるという二重の目的を持っているかどうか、有効な配達先であるかどうかを追跡し、郵便アドレスは物理的な場所のプロキシとしてよく使用されます（[場所]（場所を参照してください。HTML＃）リソース）。 / The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>postal | physical | both 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>住所（訪問できる住所）と郵送先住所（私書箱や気付住所など）を区別する。ほとんどのアドレスは両方。</t>
+  </si>
+  <si>
+    <t>住所の種類をValueSet(AddressType)より選択する。  
+- postal : 郵送先 - 私書箱、気付の住所
+- physical : 訪れることのできる物理的な住所
+- both : postalとphysicalの両方</t>
   </si>
   <si>
     <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
@@ -808,18 +803,26 @@
     <t>Practitioner.address.text</t>
   </si>
   <si>
-    <t>アドレスのテキスト表現 / Text representation of the address</t>
-  </si>
-  <si>
-    <t>アドレス全体を指定する必要があるため、例えば郵便ラベルで。これは、特定の部分の代わりに、または特定の部分と同様に提供される場合があります。 / Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>テキスト表現とパーツの両方を提供できます。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、一部に見つからないテキストにコンテンツが含まれていないことを保証するものとします。 / Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+    <t>住所のテキスト表現 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>表示するアドレス全体を指定する  
+例：郵便ラベル。これは、特定の部品の代わりに、または特定の部品と同様に提供される場合がある。</t>
+  </si>
+  <si>
+    <t>テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。  
+- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
+- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
+- 郵便番号は含めない。  
+例：東京都文京区本郷7-3-1</t>
   </si>
   <si>
     <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
+    <t>東京都文京区本郷7-3-1</t>
+  </si>
+  <si>
     <t>Address.text</t>
   </si>
   <si>
@@ -832,10 +835,21 @@
     <t>Practitioner.address.line</t>
   </si>
   <si>
-    <t>ストリート名、番号、方向＆P.O。ボックスなど / Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>このコンポーネントには、家番号、アパート番号、ストリート名、通りの方向、P.O。ボックス番号、配信ヒント、および同様のアドレス情報。 / This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+    <t>ストリート名や番地など 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>このコンポーネントには、家番号、アパート番号、通りの名前、通りの方向、P.O。が含まれる。ボックス番号、配達のヒント、および同様の住所情報など。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。  
+英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。  
+繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。  
+例：本郷7-3-1  
+例：大字石神９７６  
+例：藤崎町大字藤崎字西村1-2 春山荘201号室</t>
+  </si>
+  <si>
+    <t>本郷7-3-1</t>
   </si>
   <si>
     <t>Address.line</t>
@@ -857,10 +871,16 @@
 </t>
   </si>
   <si>
-    <t>都市、町などの名前。 / Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>都市、町、郊外、村、またはその他のコミュニティまたは配達センターの名前。 / The name of the city, town, suburb, village or other community or delivery center.</t>
+    <t>市区町村名 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>n市、町、郊外、村、その他のコミュニティまたは配達センターの名前。</t>
+  </si>
+  <si>
+    <t>１MBを超えないこと。  【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
+  </si>
+  <si>
+    <t>文京区</t>
   </si>
   <si>
     <t>Address.city</t>
@@ -882,13 +902,13 @@
 </t>
   </si>
   <si>
-    <t>地区名（別名郡） / District name (aka county)</t>
+    <t>地区名 【JP_Patient.address参照】</t>
   </si>
   <si>
     <t>管理エリア（郡）の名前。 / The name of the administrative area (county).</t>
   </si>
   <si>
-    <t>地区は郡として知られていることもありますが、一部の地域では「郡」は都市（自治体）の代わりに使用されているため、代わりに郡の名前を都市で伝える必要があります。 / District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+    <t>【JP Core仕様】日本の住所では使用しない。</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -907,10 +927,16 @@
 Territory</t>
   </si>
   <si>
-    <t>国のサブユニット（略語OK） / Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>連邦政府が組織された国に限られた主権を持つ国のサブユニット。コードが一般的に使用されている場合（たとえば、2文字の状態コードなど）、コードを使用できます。 / Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+    <t>国の次の地区単位 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>国の主権が制限されている国のサブユニット。日本の場合、都道府県名。</t>
+  </si>
+  <si>
+    <t>１MBを超えないこと。  都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。 例：東京都</t>
+  </si>
+  <si>
+    <t>東京都</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -932,12 +958,18 @@
 </t>
   </si>
   <si>
-    <t>エリアの郵便番号 / Postal code for area</t>
+    <t>郵便番号 【JP_Patient.address参照】</t>
   </si>
   <si>
     <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
+    <t>郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
+  </si>
+  <si>
+    <t>113-8655</t>
+  </si>
+  <si>
     <t>Address.postalCode</t>
   </si>
   <si>
@@ -953,13 +985,13 @@
     <t>Practitioner.address.country</t>
   </si>
   <si>
-    <t>国（例えばISO 3166 2または3文字のコードにすることができます） / Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>国 - 一般的に理解されるか、一般的に受け入れられている国。 / Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3文字コードは、人間の読み取り可能な国名の代わりに使用できます。 / ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+    <t>国名またはISO 3166コード　(ISO 3166 2 or 3文字こーど)</t>
+  </si>
+  <si>
+    <t>国-一般的に理解されている、または一般的に受け入れられている国の国名かコード。</t>
+  </si>
+  <si>
+    <t>ISO 3166 3文字コードは、人間が読める国名の代わりに使用する。  ISO 3166の2文字または3文字のコード.  日本であれば、jpまたはjpn</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -977,13 +1009,13 @@
     <t>Practitioner.address.period</t>
   </si>
   <si>
-    <t>アドレスが使用されていた期間 / Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>アドレスが使用されていた期間。 / Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
+    <t>住所が使用されていた（いる）期間</t>
+  </si>
+  <si>
+    <t>住所が使用されていた/されている期間。 期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  期間は、時間間隔（経過時間の測定値）には使用されない。</t>
+  </si>
+  <si>
+    <t>アドレスを履歴上の文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>Address.period</t>
@@ -998,12 +1030,10 @@
     <t>男性|女性|その他|わからない / male | female | other | unknown</t>
   </si>
   <si>
-    <t>Administrative Gender - the gender that the person is considered to have for administration and record keeping purposes.
-管理や記録のためにその人が持っていると思われる性別。</t>
-  </si>
-  <si>
-    <t>Needed to address the person correctly.
-正しく相手に対応する必要がある。</t>
+    <t>管理や記録のためにその人が持っていると思われる性別。</t>
+  </si>
+  <si>
+    <t>正しく相手に対応する必要がある。</t>
   </si>
   <si>
     <t>管理目的で使用される人の性別。 / The gender of a person used for administrative purposes.</t>
@@ -1028,15 +1058,10 @@
 </t>
   </si>
   <si>
-    <t>The date  on which the practitioner was born　医療従事者の生年月日</t>
-  </si>
-  <si>
-    <t>The date of birth for the practitioner.
-医療従事者の生年月日</t>
-  </si>
-  <si>
-    <t>Needed for identification.
-身分証明に必要。</t>
+    <t>医療従事者の生年月日</t>
+  </si>
+  <si>
+    <t>身分証明に必要。</t>
   </si>
   <si>
     <t>STF-6</t>
@@ -1058,16 +1083,13 @@
     <t>人の画像 / Image of the person</t>
   </si>
   <si>
-    <t>Image of the person.
-医療従事者の写真。</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".
-サマリービューを提供する場合（例えば、Observation.value[x]で）、添付ファイルは "Signed Procedure Consent "のような簡単な表示テキストで表現されなければならない。</t>
-  </si>
-  <si>
-    <t>Many EHR systems have the capability to capture an image of patients and personnel. Fits with newer social media usage too.
-多くのEHRシステムは、患者や職員の画像をキャプチャする機能を持っている。新しいソーシャルメディアの利用にも対応している。</t>
+    <t>医療従事者の写真。</t>
+  </si>
+  <si>
+    <t>サマリービューを提供する場合（例えば、Observation.value[x]で）、添付ファイルは "Signed Procedure Consent "のような簡単な表示テキストで表現されなければならない。</t>
+  </si>
+  <si>
+    <t>多くのEHRシステムは、患者や職員の画像をキャプチャする機能を持っている。新しいソーシャルメディアの利用にも対応している。</t>
   </si>
   <si>
     <t>./subjectOf/ObservationEvent[code="photo"]/value</t>
@@ -1083,11 +1105,10 @@
 </t>
   </si>
   <si>
-    <t>Certification, licenses, or training pertaining to the provision of care　ケアの提供に関連する認定、ライセンス、またはトレーニング 【詳細参照】</t>
-  </si>
-  <si>
-    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certain locality.
-医療従事者によるケアの提供を認可する、あるいは関連する、公式の証明書、トレーニング、免許証等。
+    <t>ケアの提供に関連する認定、ライセンス、またはトレーニング 【詳細参照】</t>
+  </si>
+  <si>
+    <t>医療従事者によるケアの提供を認可する、あるいは関連する、公式の証明書、トレーニング、免許証等。
 例えば、医療委員会が発行した医師免許証は、認定された地域内で医療を行うことを開業医に許可するものである。</t>
   </si>
   <si>
@@ -1142,12 +1163,10 @@
     <t>開業医のこの資格の識別子 / An identifier for this qualification for the practitioner</t>
   </si>
   <si>
-    <t>An identifier that applies to this person's qualification in this role.
-この人物のこの役割における資格に適用される識別子。</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the qualification.
-多くの場合、資格には特定の識別子が割り当てられる。</t>
+    <t>この人物のこの役割における資格に適用される識別子。</t>
+  </si>
+  <si>
+    <t>多くの場合、資格には特定の識別子が割り当てられる。</t>
   </si>
   <si>
     <t>.playingEntity.playingRole[classCode=QUAL].id</t>
@@ -1163,12 +1182,10 @@
     <t>資格のコード化された表現 / Coded representation of the qualification</t>
   </si>
   <si>
-    <t>Coded representation of the qualification.
-資格のコード化された表現。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべての用語の使用がこの一般的なパターンに適合するわけではない。いくつかのケースでは、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係、および前後の調整を管理するための独自の構造を提供することが望ましい。</t>
+    <t>資格のコード化された表現。</t>
+  </si>
+  <si>
+    <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。いくつかのケースでは、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係、および前後の調整を管理するための独自の構造を提供することが望ましい。</t>
   </si>
   <si>
     <t>example</t>
@@ -1189,18 +1206,14 @@
     <t>資格が有効な期間 / Period during which the qualification is valid</t>
   </si>
   <si>
-    <t>Period during which the qualification is valid.
-資格が有効な期間。</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
-使用のコンテキストは、範囲全体が適用されるか（例：「患者はこの時間範囲で病院の入院患者であった」）、範囲内の1つの値が適用されるか（例：「この2つの時間の間に患者に与える」）を指定する。
+    <t>資格が有効な期間。</t>
+  </si>
+  <si>
+    <t>使用のコンテキストは、範囲全体が適用されるか（例：「患者はこの時間範囲で病院の入院患者であった」）、範囲内の1つの値が適用されるか（例：「この2つの時間の間に患者に与える」）を指定する。
 期間は、期間(経過時間の尺度)には使用されない。[Duration](http://hl7.org/fhir/R4/datatypes.html#Duration)を参照のこと。</t>
   </si>
   <si>
-    <t>Qualifications are often for a limited period of time, and can be revoked.
-資格は期間限定のものが多く、取り消されることもある。</t>
+    <t>資格は期間限定のものが多く、取り消されることもある。</t>
   </si>
   <si>
     <t>.playingEntity.playingRole[classCode=QUAL].effectiveTime</t>
@@ -1219,12 +1232,10 @@
     <t>資格を規制および発行する組織 / Organization that regulates and issues the qualification</t>
   </si>
   <si>
-    <t>Organization that regulates and issues the qualification.
-資格を規制し、発行する機関</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければならない。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができる。</t>
+    <t>資格を規制し、発行する機関</t>
+  </si>
+  <si>
+    <t>参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければならない。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができる。</t>
   </si>
   <si>
     <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
@@ -1284,7 +1295,7 @@
     <t>Practitioner.qualification.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -1604,19 +1615,16 @@
     <t>Practitioner.communication</t>
   </si>
   <si>
-    <t>A language the practitioner can use in patient communication　医療従事者が患者とのコミュニケーションで使用できる言語</t>
-  </si>
-  <si>
-    <t>A language the practitioner can use in patient communication.
-医療従事者が患者とのコミュニケーションで使用できる言語。</t>
-  </si>
-  <si>
-    <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.
-このように正確なケーシングを持つ構造体 aa-BB は、ロケールのために最も広く使われている表記法の一つ。しかし、すべてのシステムがこれをコード化しているわけではなく、代わりにフリーテキストとしている。そのため、データ型としてはコードの代わりに CodeableConcept を使用している。</t>
-  </si>
-  <si>
-    <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.
-医療従事者がどの言語を話すかを知ることは、患者とのコミュニケーションを円滑にするのに役立つ。</t>
+    <t>医療従事者が患者とのコミュニケーションで使用できる言語</t>
+  </si>
+  <si>
+    <t>医療従事者が患者とのコミュニケーションで使用できる言語。</t>
+  </si>
+  <si>
+    <t>このように正確なケーシングを持つ構造体 aa-BB は、ロケールのために最も広く使われている表記法の一つ。しかし、すべてのシステムがこれをコード化しているわけではなく、代わりにフリーテキストとしている。そのため、データ型としてはコードの代わりに CodeableConcept を使用している。</t>
+  </si>
+  <si>
+    <t>医療従事者がどの言語を話すかを知ることは、患者とのコミュニケーションを円滑にするのに役立つ。</t>
   </si>
   <si>
     <t>PID-15, NK1-20, LAN-2</t>
@@ -1959,7 +1967,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="14.66796875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -3733,7 +3741,9 @@
       <c r="M16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3758,13 +3768,13 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -3782,7 +3792,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3791,19 +3801,19 @@
         <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>38</v>
@@ -3811,10 +3821,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3840,16 +3850,16 @@
         <v>145</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3898,7 +3908,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3910,16 +3920,16 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
@@ -3927,10 +3937,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3956,16 +3966,16 @@
         <v>69</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3990,13 +4000,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -4014,7 +4024,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4026,16 +4036,16 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -4043,10 +4053,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4069,16 +4079,16 @@
         <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4128,7 +4138,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4140,7 +4150,7 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>149</v>
@@ -4157,10 +4167,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4183,16 +4193,16 @@
         <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4242,7 +4252,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4254,16 +4264,16 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -4271,10 +4281,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4297,19 +4307,19 @@
         <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4358,7 +4368,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4373,13 +4383,13 @@
         <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -4387,10 +4397,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4416,10 +4426,10 @@
         <v>145</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4499,10 +4509,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4531,7 +4541,7 @@
         <v>96</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>98</v>
@@ -4575,7 +4585,7 @@
         <v>154</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>38</v>
@@ -4613,10 +4623,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4642,16 +4652,16 @@
         <v>69</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4676,13 +4686,13 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>38</v>
@@ -4700,7 +4710,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4715,13 +4725,13 @@
         <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4729,10 +4739,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4758,13 +4768,13 @@
         <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4790,13 +4800,13 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4814,7 +4824,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4829,10 +4839,10 @@
         <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4843,10 +4853,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4872,16 +4882,16 @@
         <v>145</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4894,7 +4904,7 @@
         <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>38</v>
@@ -4930,7 +4940,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4945,10 +4955,10 @@
         <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4959,10 +4969,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4988,12 +4998,14 @@
         <v>145</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -5006,7 +5018,7 @@
         <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>38</v>
@@ -5042,7 +5054,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5057,13 +5069,13 @@
         <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -5071,14 +5083,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5100,12 +5112,14 @@
         <v>145</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5118,7 +5132,7 @@
         <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>38</v>
@@ -5154,7 +5168,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5169,13 +5183,13 @@
         <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5183,14 +5197,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5212,13 +5226,13 @@
         <v>145</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5268,7 +5282,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5283,10 +5297,10 @@
         <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5297,14 +5311,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5326,12 +5340,14 @@
         <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5344,7 +5360,7 @@
         <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>38</v>
@@ -5380,7 +5396,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5395,13 +5411,13 @@
         <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5409,14 +5425,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5438,12 +5454,14 @@
         <v>145</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5456,7 +5474,7 @@
         <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>38</v>
@@ -5492,7 +5510,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5507,13 +5525,13 @@
         <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -5521,10 +5539,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5550,13 +5568,13 @@
         <v>145</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5606,7 +5624,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5621,13 +5639,13 @@
         <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5635,10 +5653,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5661,19 +5679,19 @@
         <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5722,7 +5740,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5737,13 +5755,13 @@
         <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5751,10 +5769,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5780,14 +5798,14 @@
         <v>69</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5812,13 +5830,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5836,7 +5854,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5851,13 +5869,13 @@
         <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5865,10 +5883,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5891,17 +5909,17 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5950,7 +5968,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5965,13 +5983,13 @@
         <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
@@ -5979,10 +5997,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6005,19 +6023,19 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6066,7 +6084,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6084,10 +6102,10 @@
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -6095,10 +6113,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6121,16 +6139,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6168,7 +6186,7 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
@@ -6178,7 +6196,7 @@
         <v>156</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6193,13 +6211,13 @@
         <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6207,10 +6225,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6236,10 +6254,10 @@
         <v>145</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6319,10 +6337,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6351,7 +6369,7 @@
         <v>96</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>98</v>
@@ -6433,14 +6451,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6462,10 +6480,10 @@
         <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>98</v>
@@ -6520,7 +6538,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6549,10 +6567,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6578,14 +6596,14 @@
         <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6634,7 +6652,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6652,7 +6670,7 @@
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6663,10 +6681,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6689,16 +6707,16 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6724,13 +6742,13 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -6748,7 +6766,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>49</v>
@@ -6766,10 +6784,10 @@
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6777,10 +6795,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6803,19 +6821,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6864,7 +6882,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6882,10 +6900,10 @@
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6893,10 +6911,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6919,16 +6937,16 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6978,7 +6996,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6996,7 +7014,7 @@
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -7007,13 +7025,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>38</v>
@@ -7023,7 +7041,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -7035,13 +7053,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7092,7 +7110,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7107,13 +7125,13 @@
         <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -7121,10 +7139,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7150,10 +7168,10 @@
         <v>145</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7233,10 +7251,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7265,7 +7283,7 @@
         <v>96</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>98</v>
@@ -7347,14 +7365,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7376,10 +7394,10 @@
         <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>98</v>
@@ -7434,7 +7452,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7463,10 +7481,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7492,14 +7510,14 @@
         <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7548,7 +7566,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7566,7 +7584,7 @@
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7577,10 +7595,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7606,10 +7624,10 @@
         <v>145</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7689,10 +7707,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7721,7 +7739,7 @@
         <v>96</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>98</v>
@@ -7765,7 +7783,7 @@
         <v>154</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>38</v>
@@ -7803,10 +7821,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7832,16 +7850,16 @@
         <v>69</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7866,13 +7884,13 @@
         <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7890,7 +7908,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7908,7 +7926,7 @@
         <v>92</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7919,10 +7937,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7945,19 +7963,19 @@
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7982,13 +8000,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -8006,7 +8024,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8021,10 +8039,10 @@
         <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -8035,10 +8053,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8064,16 +8082,16 @@
         <v>63</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8122,7 +8140,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8137,13 +8155,13 @@
         <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -8151,10 +8169,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8180,13 +8198,13 @@
         <v>145</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8236,7 +8254,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8251,13 +8269,13 @@
         <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8265,10 +8283,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8291,13 +8309,13 @@
         <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8348,7 +8366,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8363,13 +8381,13 @@
         <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
@@ -8377,10 +8395,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8403,16 +8421,16 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8462,7 +8480,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8477,13 +8495,13 @@
         <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8491,10 +8509,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8517,13 +8535,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8535,7 +8553,7 @@
         <v>38</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>38</v>
@@ -8550,11 +8568,11 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8572,7 +8590,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>49</v>
@@ -8590,10 +8608,10 @@
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8601,10 +8619,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8627,17 +8645,17 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8686,7 +8704,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8704,10 +8722,10 @@
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8715,10 +8733,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8741,13 +8759,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8798,7 +8816,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8816,7 +8834,7 @@
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -8827,13 +8845,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>38</v>
@@ -8855,13 +8873,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8912,7 +8930,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8927,13 +8945,13 @@
         <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8941,10 +8959,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8970,10 +8988,10 @@
         <v>145</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9053,10 +9071,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9085,7 +9103,7 @@
         <v>96</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>98</v>
@@ -9167,14 +9185,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9196,10 +9214,10 @@
         <v>95</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>98</v>
@@ -9254,7 +9272,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9283,10 +9301,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9312,14 +9330,14 @@
         <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9368,7 +9386,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9386,7 +9404,7 @@
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
@@ -9397,10 +9415,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9426,10 +9444,10 @@
         <v>145</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9509,10 +9527,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9541,7 +9559,7 @@
         <v>96</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>98</v>
@@ -9585,7 +9603,7 @@
         <v>154</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>38</v>
@@ -9623,10 +9641,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9652,16 +9670,16 @@
         <v>69</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -9686,13 +9704,13 @@
         <v>38</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -9710,7 +9728,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9728,7 +9746,7 @@
         <v>92</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
@@ -9739,10 +9757,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9765,19 +9783,19 @@
         <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -9802,13 +9820,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -9826,7 +9844,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9841,10 +9859,10 @@
         <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
@@ -9855,10 +9873,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9884,23 +9902,23 @@
         <v>63</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>38</v>
@@ -9942,7 +9960,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9957,13 +9975,13 @@
         <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>38</v>
@@ -9971,10 +9989,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10000,13 +10018,13 @@
         <v>145</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10056,7 +10074,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10071,13 +10089,13 @@
         <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>38</v>
@@ -10085,10 +10103,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10111,13 +10129,13 @@
         <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10168,7 +10186,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10183,13 +10201,13 @@
         <v>61</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>38</v>
@@ -10197,10 +10215,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10223,16 +10241,16 @@
         <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10282,7 +10300,7 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10297,13 +10315,13 @@
         <v>61</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>38</v>
@@ -10311,10 +10329,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10337,13 +10355,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10355,7 +10373,7 @@
         <v>38</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>38</v>
@@ -10370,11 +10388,11 @@
         <v>38</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>38</v>
@@ -10392,7 +10410,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>49</v>
@@ -10410,10 +10428,10 @@
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>38</v>
@@ -10421,10 +10439,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10447,17 +10465,17 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10506,7 +10524,7 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -10524,10 +10542,10 @@
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10535,10 +10553,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10561,13 +10579,13 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10618,7 +10636,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10636,7 +10654,7 @@
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
@@ -10647,10 +10665,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10673,19 +10691,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -10734,7 +10752,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10749,13 +10767,13 @@
         <v>61</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -370,7 +370,7 @@
 - 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号
 医療機関識別OID番号は患者IDの発行者である施設を識別するものであり、医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細についてはOrganizationプロファイルの医療機関コード１０桁の説明を参照すること。  
 例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」  
-なお、rn:oid:1.2.392.100495.20.3.41 の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。  
+なお、urn:oid:1.2.392.100495.20.3.41 の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。  
 地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。  
 医師、歯科医師以外の医療者のIDの名前空間を表す system 値はまだ未定のため、空白もしくは「ドメイン名/PractitionerのSystem発行キー」などの識別コードを入れること。  
 例：http://www.abd-hospital.co.jp/practitioner-system</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -513,7 +513,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -533,7 +533,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Practitioner.telecom.system</t>
@@ -551,7 +551,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>「連絡先のための通信フォーム。」</t>
+    <t>連絡先のための通信フォーム。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -649,10 +649,10 @@
 </t>
   </si>
   <si>
-    <t>「使用の優先順位を指定してください（1が最も優先度が高い）」</t>
-  </si>
-  <si>
-    <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
+    <t>使用の優先順位を指定してください（1が最も優先度が高い）</t>
+  </si>
+  <si>
+    <t>一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。</t>
   </si>
   <si>
     <t>連絡先の使用順序（1 = 最高）</t>
@@ -668,10 +668,10 @@
 </t>
   </si>
   <si>
-    <t>「コンタクトポイントが使用されている時間帯」</t>
-  </si>
-  <si>
-    <t>「接点が使用されていた/現在使用中である時間期間」</t>
+    <t>コンタクトポイントが使用されている時間帯</t>
+  </si>
+  <si>
+    <t>接点が使用されていた/現在使用中である時間期間</t>
   </si>
   <si>
     <t>連絡先が使用されていた/されている期間</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -145,7 +145,7 @@
     <t>ヘルスケアまたは関連サービスの提供に正式な責任を負う人</t>
   </si>
   <si>
-    <t>A person who is directly or indirectly involved in the provisioning of healthcare.
+    <t>A person who is directly or indirectly involved in the provisioning of healthcare.  
 医療の提供に直接または間接的に関与する者をいう。</t>
   </si>
   <si>
@@ -360,14 +360,14 @@
     <t>An identifier for the person as this agent Practitionerリソースに対する識別子【詳細参照】</t>
   </si>
   <si>
-    <t>An identifier that applies to this person in this role.
+    <t>An identifier that applies to this person in this role.  
 ある役割の人に適用される識別子。</t>
   </si>
   <si>
     <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。  
-Practitioner.identifier.systemは以下の割り当てる。
-- 医師の場合 : urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
-- 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号
+Practitioner.identifier.systemは以下の割り当てる。  
+　- 医師の場合 : urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
+　- 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号  
 医療機関識別OID番号は患者IDの発行者である施設を識別するものであり、医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細についてはOrganizationプロファイルの医療機関コード１０桁の説明を参照すること。  
 例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」  
 なお、urn:oid:1.2.392.100495.20.3.41 の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。  
@@ -432,14 +432,14 @@
     <t>医療従事者の氏名（複数の場合もある）</t>
   </si>
   <si>
-    <t>プロパティの選択は、指定された単一の通常の名前があることを保証しなければならず、他の値はニックネーム（別名）、旧名、または他の値を適切に使用する。
-一般的には、以下を基準にResourceReference.displayで使用する値を選択する。
- 1. 最低限1つ以上の名前があること
- 2.useプロパティが「usual」であること
- 3. 有効期限は利用開始日から現在まであること
- 4. useプロパティが「official」であること
- 5. その他、内部ルールで決められた順番）
-医療従事者のNameの漢字カナ表記については、JP_Patient.nameで採用した方法を踏襲する。
+    <t>プロパティの選択は、指定された単一の通常の名前があることを保証しなければならず、他の値はニックネーム（別名）、旧名、または他の値を適切に使用する。  
+一般的には、以下を基準にResourceReference.displayで使用する値を選択する。  
+　1. 最低限1つ以上の名前があること  
+　2.useプロパティが「usual」であること  
+　3. 有効期限は利用開始日から現在まであること  
+　4. useプロパティが「official」であること  
+　5. その他、内部ルールで決められた順番）  
+医療従事者のNameの漢字カナ表記については、JP_Patient.nameで採用した方法を踏襲する。  
 そのほか、要素の説明は、JP_Patient.nameを参照。</t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>電話番号やメールアドレスなど、従事者への詳細な連絡先。</t>
   </si>
   <si>
-    <t>異なる用途や適用される期間に応じて複数の連絡方法を持っている可能性がある。本人に緊急に連絡を取るためのオプションが必要な場合があり、また本人の身元確認に役立つ場合がある。これらは通常、自宅の電話番号、または役割が特定されていない携帯電話番号を持つことになる。
+    <t>異なる用途や適用される期間に応じて複数の連絡方法を持っている可能性がある。本人に緊急に連絡を取るためのオプションが必要な場合があり、また本人の身元確認に役立つ場合がある。これらは通常、自宅の電話番号、または役割が特定されていない携帯電話番号を持つことになる。  
 要素の説明は、JP_Patient.telecomを参照。</t>
   </si>
   <si>
@@ -613,11 +613,11 @@
     <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
   </si>
   <si>
-    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。
-　- home : 自宅
-　- work : 職場
-　- temp : 一時的
-　- old : 以前の
+    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
+　- home : 自宅  
+　- work : 職場  
+　- temp : 一時的   
+　- old : 以前の  
 　- mobile : モバイル機器</t>
   </si>
   <si>
@@ -696,15 +696,15 @@
     <t>役割が特定されていない従事者の住所（通常は自宅の住所）</t>
   </si>
   <si>
-    <t>役割が特定されていない従事者の住所（通常は自宅の住所）。
+    <t>役割が特定されていない従事者の住所（通常は自宅の住所）。  
 勤務先の住所は通常、役割に依存するため、このプロパティには入力されない。</t>
   </si>
   <si>
-    <t>患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
+    <t>患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。  
 【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。  
-　- 住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する
-　- 住所が構造化されていない場合は、Address.text に記述する
-　- 各住所パートとtext は、両方存在してもよい</t>
+　・住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する  
+　・住所が構造化されていない場合は、Address.text に記述する  
+　・各住所パートとtext は、両方存在してもよい</t>
   </si>
   <si>
     <t>医療従事者の自宅/メールアドレスは、従業員管理のために必要とされることが多く、また、一部のロスタリングサービスでは、開始点（医療従事者の自宅）が計算に使用されることがある。</t>
@@ -743,16 +743,16 @@
     <t>home | work | temp | old | billing - purpose of this address　住所の用途 【JP_Patient.address参照】</t>
   </si>
   <si>
-    <t>The purpose of this address.
+    <t>The purpose of this address.  
 住所の用途</t>
   </si>
   <si>
     <t>住所の用途をValueSet(AddressUse)より選択する。  
-- home : 自宅
-- work : 職場
-- temp : 一時的
-- old : 以前の
-- billing : 請求書、インボイス、領収書などの送付用</t>
+　- home : 自宅  
+　- work : 職場  
+　- temp : 一時的  
+　- old : 以前の  
+　- billing : 請求書、インボイス、領収書などの送付用</t>
   </si>
   <si>
     <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
@@ -783,9 +783,9 @@
   </si>
   <si>
     <t>住所の種類をValueSet(AddressType)より選択する。  
-- postal : 郵送先 - 私書箱、気付の住所
-- physical : 訪れることのできる物理的な住所
-- both : postalとphysicalの両方</t>
+　- postal : 郵送先 - 私書箱、気付の住所  
+　- physical : 訪れることのできる物理的な住所  
+　- both : postalとphysicalの両方</t>
   </si>
   <si>
     <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
@@ -811,16 +811,13 @@
   </si>
   <si>
     <t>テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。  
-- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
-- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
-- 郵便番号は含めない。  
+　- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
+　- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
+　- 郵便番号は含めない。  
 例：東京都文京区本郷7-3-1</t>
   </si>
   <si>
     <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>東京都文京区本郷7-3-1</t>
   </si>
   <si>
     <t>Address.text</t>
@@ -849,9 +846,6 @@
 例：藤崎町大字藤崎字西村1-2 春山荘201号室</t>
   </si>
   <si>
-    <t>本郷7-3-1</t>
-  </si>
-  <si>
     <t>Address.line</t>
   </si>
   <si>
@@ -880,9 +874,6 @@
     <t>１MBを超えないこと。  【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
   </si>
   <si>
-    <t>文京区</t>
-  </si>
-  <si>
     <t>Address.city</t>
   </si>
   <si>
@@ -936,9 +927,6 @@
     <t>１MBを超えないこと。  都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。 例：東京都</t>
   </si>
   <si>
-    <t>東京都</t>
-  </si>
-  <si>
     <t>Address.state</t>
   </si>
   <si>
@@ -967,9 +955,6 @@
     <t>郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
   </si>
   <si>
-    <t>113-8655</t>
-  </si>
-  <si>
     <t>Address.postalCode</t>
   </si>
   <si>
@@ -1108,15 +1093,14 @@
     <t>ケアの提供に関連する認定、ライセンス、またはトレーニング 【詳細参照】</t>
   </si>
   <si>
-    <t>医療従事者によるケアの提供を認可する、あるいは関連する、公式の証明書、トレーニング、免許証等。
+    <t>医療従事者によるケアの提供を認可する、あるいは関連する、公式の証明書、トレーニング、免許証等。  
 例えば、医療委員会が発行した医師免許証は、認定された地域内で医療を行うことを開業医に許可するものである。</t>
   </si>
   <si>
-    <t>麻薬施用者免許番号、または医籍登録番号を格納するためのQualification/Slicing定義。
-麻薬施用者免許番号の場合のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.32.1[都道府県番号] を使用する。
-( 頭に1をつけて末尾3桁で表現する。これは北海道などの場合、都道府県番号は01になるが、OID
-では先頭が0は許可されていないため、頭に1をつけて3桁で表現する)
-つまり麻薬施用者免許番号を発行した都道府県ごとにsystemも異なる値となる。
+    <t>麻薬施用者免許番号、または医籍登録番号を格納するためのQualification/Slicing定義。  
+麻薬施用者免許番号の場合のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.32.1[都道府県番号] を使用する。  
+( 頭に1をつけて末尾3桁で表現する。これは北海道などの場合、都道府県番号は01になるが、OIDでは先頭が0は許可されていないため、頭に1をつけて3桁で表現する)  
+つまり麻薬施用者免許番号を発行した都道府県ごとにsystemも異なる値となる。  
 医籍登録番号のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.31 を使用する。</t>
   </si>
   <si>
@@ -1166,6 +1150,14 @@
     <t>この人物のこの役割における資格に適用される識別子。</t>
   </si>
   <si>
+    <t>【JP Core仕様】identifierには資格番号を入力する。  
+Codeは、v2 table 0360が例としてのっている。0360は、USER-DEFINED TABLES であるため、適切なCodeがなければ追加できる。  
+Periodにはその資格の開始日・終了日を入力する。（例：麻薬資格者の有効期限等の格納）  
+医籍登録番号　Practitioner.qualification.identifier　urn:oid:1.2.392.100495.20.3.31  
+麻薬施用者番号　Practitioner.qualification.identifier　urn:oid:1.2.392.100495.20.3.32.都道府県OID番号  
+　　（都道府県OID番号は、都道府県番号2桁の先頭に１をつけた3桁の番号）</t>
+  </si>
+  <si>
     <t>多くの場合、資格には特定の識別子が割り当てられる。</t>
   </si>
   <si>
@@ -1209,7 +1201,7 @@
     <t>資格が有効な期間。</t>
   </si>
   <si>
-    <t>使用のコンテキストは、範囲全体が適用されるか（例：「患者はこの時間範囲で病院の入院患者であった」）、範囲内の1つの値が適用されるか（例：「この2つの時間の間に患者に与える」）を指定する。
+    <t>使用のコンテキストは、範囲全体が適用されるか（例：「患者はこの時間範囲で病院の入院患者であった」）、範囲内の1つの値が適用されるか（例：「この2つの時間の間に患者に与える」）を指定する。  
 期間は、期間(経過時間の尺度)には使用されない。[Duration](http://hl7.org/fhir/R4/datatypes.html#Duration)を参照のこと。</t>
   </si>
   <si>
@@ -1366,53 +1358,53 @@
   <si>
     <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)]。  
 都道府県毎のOIDを以下に示す。  
-- urn:oid:1.2.392.100495.20.3.32.101(北海道)
-- urn:oid:1.2.392.100495.20.3.32.102(青森県)
-- urn:oid:1.2.392.100495.20.3.32.103(岩手県)
-- urn:oid:1.2.392.100495.20.3.32.104(宮城県)
-- urn:oid:1.2.392.100495.20.3.32.105(秋田県)
-- urn:oid:1.2.392.100495.20.3.32.106(山形県)
-- urn:oid:1.2.392.100495.20.3.32.107(福島県)
-- urn:oid:1.2.392.100495.20.3.32.108(茨城県)
-- urn:oid:1.2.392.100495.20.3.32.109(栃木県)
-- urn:oid:1.2.392.100495.20.3.32.110(群馬県)
-- urn:oid:1.2.392.100495.20.3.32.111(埼玉県)
-- urn:oid:1.2.392.100495.20.3.32.112(千葉県)
-- urn:oid:1.2.392.100495.20.3.32.113(東京都)
-- urn:oid:1.2.392.100495.20.3.32.114(神奈川)
-- urn:oid:1.2.392.100495.20.3.32.115(新潟県)
-- urn:oid:1.2.392.100495.20.3.32.116(富山県)
-- urn:oid:1.2.392.100495.20.3.32.117(石川県)
-- urn:oid:1.2.392.100495.20.3.32.118(福井県)
-- urn:oid:1.2.392.100495.20.3.32.119(山梨県)
-- urn:oid:1.2.392.100495.20.3.32.120(長野県)
-- urn:oid:1.2.392.100495.20.3.32.121(岐阜県)
-- urn:oid:1.2.392.100495.20.3.32.122(静岡県)
-- urn:oid:1.2.392.100495.20.3.32.123(愛知県)
-- urn:oid:1.2.392.100495.20.3.32.124(三重県)
-- urn:oid:1.2.392.100495.20.3.32.125(滋賀県)
-- urn:oid:1.2.392.100495.20.3.32.126(京都府)
-- urn:oid:1.2.392.100495.20.3.32.127(大阪府)
-- urn:oid:1.2.392.100495.20.3.32.128(兵庫県)
-- urn:oid:1.2.392.100495.20.3.32.129(奈良県)
-- urn:oid:1.2.392.100495.20.3.32.130(和歌山県)
-- urn:oid:1.2.392.100495.20.3.32.131(鳥取県)
-- urn:oid:1.2.392.100495.20.3.32.132(島根県)
-- urn:oid:1.2.392.100495.20.3.32.133(岡山県)
-- urn:oid:1.2.392.100495.20.3.32.134(広島県)
-- urn:oid:1.2.392.100495.20.3.32.135(山口県)
-- urn:oid:1.2.392.100495.20.3.32.136(徳島県)
-- urn:oid:1.2.392.100495.20.3.32.137(香川県)
-- urn:oid:1.2.392.100495.20.3.32.138(愛媛県)
-- urn:oid:1.2.392.100495.20.3.32.139(高知県)
-- urn:oid:1.2.392.100495.20.3.32.140(福岡県)
-- urn:oid:1.2.392.100495.20.3.32.141(佐賀県)
-- urn:oid:1.2.392.100495.20.3.32.142(長崎県)
-- urn:oid:1.2.392.100495.20.3.32.143(熊本県)
-- urn:oid:1.2.392.100495.20.3.32.144(大分県)
-- urn:oid:1.2.392.100495.20.3.32.145(宮崎県)
-- urn:oid:1.2.392.100495.20.3.32.146(鹿児島県)
-- urn:oid:1.2.392.100495.20.3.32.147(沖縄県)</t>
+　- urn:oid:1.2.392.100495.20.3.32.101(北海道)  
+　- urn:oid:1.2.392.100495.20.3.32.102(青森県)  
+　- urn:oid:1.2.392.100495.20.3.32.103(岩手県)  
+　- urn:oid:1.2.392.100495.20.3.32.104(宮城県)  
+　- urn:oid:1.2.392.100495.20.3.32.105(秋田県)  
+　- urn:oid:1.2.392.100495.20.3.32.106(山形県)  
+　- urn:oid:1.2.392.100495.20.3.32.107(福島県)  
+　- urn:oid:1.2.392.100495.20.3.32.108(茨城県)  
+　- urn:oid:1.2.392.100495.20.3.32.109(栃木県)  
+　- urn:oid:1.2.392.100495.20.3.32.110(群馬県)  
+　- urn:oid:1.2.392.100495.20.3.32.111(埼玉県)  
+　- urn:oid:1.2.392.100495.20.3.32.112(千葉県)  
+　- urn:oid:1.2.392.100495.20.3.32.113(東京都)  
+　- urn:oid:1.2.392.100495.20.3.32.114(神奈川)  
+　- urn:oid:1.2.392.100495.20.3.32.115(新潟県)  
+　- urn:oid:1.2.392.100495.20.3.32.116(富山県)  
+　- urn:oid:1.2.392.100495.20.3.32.117(石川県)  
+　- urn:oid:1.2.392.100495.20.3.32.118(福井県)  
+　- urn:oid:1.2.392.100495.20.3.32.119(山梨県)  
+　- urn:oid:1.2.392.100495.20.3.32.120(長野県)  
+　- urn:oid:1.2.392.100495.20.3.32.121(岐阜県)  
+　- urn:oid:1.2.392.100495.20.3.32.122(静岡県)  
+　- urn:oid:1.2.392.100495.20.3.32.123(愛知県)  
+　- urn:oid:1.2.392.100495.20.3.32.124(三重県)  
+　- urn:oid:1.2.392.100495.20.3.32.125(滋賀県)  
+　- urn:oid:1.2.392.100495.20.3.32.126(京都府)  
+　- urn:oid:1.2.392.100495.20.3.32.127(大阪府)  
+　- urn:oid:1.2.392.100495.20.3.32.128(兵庫県)  
+　- urn:oid:1.2.392.100495.20.3.32.129(奈良県)  
+　- urn:oid:1.2.392.100495.20.3.32.130(和歌山県)  
+　- urn:oid:1.2.392.100495.20.3.32.131(鳥取県)  
+　- urn:oid:1.2.392.100495.20.3.32.132(島根県)  
+　- urn:oid:1.2.392.100495.20.3.32.133(岡山県)  
+　- urn:oid:1.2.392.100495.20.3.32.134(広島県)  
+　- urn:oid:1.2.392.100495.20.3.32.135(山口県)  
+　- urn:oid:1.2.392.100495.20.3.32.136(徳島県)  
+　- urn:oid:1.2.392.100495.20.3.32.137(香川県)  
+　- urn:oid:1.2.392.100495.20.3.32.138(愛媛県)  
+　- urn:oid:1.2.392.100495.20.3.32.139(高知県)  
+　- urn:oid:1.2.392.100495.20.3.32.140(福岡県)  
+　- urn:oid:1.2.392.100495.20.3.32.141(佐賀県)  
+　- urn:oid:1.2.392.100495.20.3.32.142(長崎県)  
+　- urn:oid:1.2.392.100495.20.3.32.143(熊本県)  
+　- urn:oid:1.2.392.100495.20.3.32.144(大分県)  
+　- urn:oid:1.2.392.100495.20.3.32.145(宮崎県)  
+　- urn:oid:1.2.392.100495.20.3.32.146(鹿児島県)  
+　- urn:oid:1.2.392.100495.20.3.32.147(沖縄県)</t>
   </si>
   <si>
     <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
@@ -1967,7 +1959,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="14.66796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -4904,43 +4896,43 @@
         <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4955,10 +4947,10 @@
         <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4969,10 +4961,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4998,13 +4990,13 @@
         <v>145</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5018,7 +5010,7 @@
         <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>38</v>
@@ -5054,7 +5046,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5069,13 +5061,13 @@
         <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -5083,14 +5075,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5112,13 +5104,13 @@
         <v>145</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5132,7 +5124,7 @@
         <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>38</v>
@@ -5168,7 +5160,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5183,13 +5175,13 @@
         <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5197,14 +5189,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5226,13 +5218,13 @@
         <v>145</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5282,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5297,10 +5289,10 @@
         <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5311,14 +5303,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5340,13 +5332,13 @@
         <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5360,7 +5352,7 @@
         <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>38</v>
@@ -5396,7 +5388,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5411,13 +5403,13 @@
         <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5425,14 +5417,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5454,13 +5446,13 @@
         <v>145</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5474,7 +5466,7 @@
         <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>38</v>
@@ -5510,7 +5502,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5525,13 +5517,13 @@
         <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -5539,10 +5531,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5568,13 +5560,13 @@
         <v>145</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5624,7 +5616,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5639,13 +5631,13 @@
         <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5653,10 +5645,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5682,16 +5674,16 @@
         <v>199</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5740,7 +5732,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5755,7 +5747,7 @@
         <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>204</v>
@@ -5769,10 +5761,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5798,14 +5790,14 @@
         <v>69</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5833,10 +5825,10 @@
         <v>163</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5854,7 +5846,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5869,13 +5861,13 @@
         <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5883,10 +5875,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5909,17 +5901,17 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5968,7 +5960,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5983,13 +5975,13 @@
         <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
@@ -5997,10 +5989,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6023,19 +6015,19 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6084,7 +6076,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6102,10 +6094,10 @@
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -6113,10 +6105,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6139,16 +6131,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6186,7 +6178,7 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
@@ -6196,7 +6188,7 @@
         <v>156</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6211,13 +6203,13 @@
         <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6225,10 +6217,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6337,10 +6329,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6451,14 +6443,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6480,10 +6472,10 @@
         <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>98</v>
@@ -6538,7 +6530,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6567,10 +6559,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6596,14 +6588,16 @@
         <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6652,7 +6646,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6670,7 +6664,7 @@
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6681,10 +6675,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6707,16 +6701,16 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6742,13 +6736,13 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -6766,7 +6760,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>49</v>
@@ -6784,10 +6778,10 @@
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6795,10 +6789,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6824,16 +6818,16 @@
         <v>199</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6882,7 +6876,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6900,10 +6894,10 @@
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6911,10 +6905,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6937,16 +6931,16 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6996,7 +6990,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7014,7 +7008,7 @@
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -7025,13 +7019,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>38</v>
@@ -7041,7 +7035,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -7053,13 +7047,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7110,7 +7104,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7125,13 +7119,13 @@
         <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -7139,10 +7133,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7251,10 +7245,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7365,14 +7359,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7394,10 +7388,10 @@
         <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>98</v>
@@ -7452,7 +7446,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7481,10 +7475,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7510,14 +7504,14 @@
         <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7566,7 +7560,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7584,7 +7578,7 @@
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7595,10 +7589,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7707,10 +7701,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7821,10 +7815,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7850,16 +7844,16 @@
         <v>69</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7887,10 +7881,10 @@
         <v>163</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>38</v>
@@ -7908,7 +7902,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7926,7 +7920,7 @@
         <v>92</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
@@ -7937,10 +7931,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7963,19 +7957,19 @@
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -8000,13 +7994,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -8024,7 +8018,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8039,10 +8033,10 @@
         <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -8053,10 +8047,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8082,16 +8076,16 @@
         <v>63</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8140,7 +8134,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8155,13 +8149,13 @@
         <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -8169,10 +8163,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8198,13 +8192,13 @@
         <v>145</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8254,7 +8248,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8269,10 +8263,10 @@
         <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>180</v>
@@ -8283,10 +8277,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8312,10 +8306,10 @@
         <v>199</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8366,7 +8360,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8381,10 +8375,10 @@
         <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>205</v>
@@ -8395,10 +8389,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8421,16 +8415,16 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8480,7 +8474,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8495,13 +8489,13 @@
         <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8509,10 +8503,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8535,13 +8529,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8553,7 +8547,7 @@
         <v>38</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>38</v>
@@ -8572,7 +8566,7 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8590,7 +8584,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>49</v>
@@ -8608,10 +8602,10 @@
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8619,10 +8613,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8648,14 +8642,14 @@
         <v>199</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8704,7 +8698,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8722,10 +8716,10 @@
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8733,10 +8727,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8759,13 +8753,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8816,7 +8810,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8834,7 +8828,7 @@
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
@@ -8845,13 +8839,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>38</v>
@@ -8873,13 +8867,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8930,7 +8924,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8945,13 +8939,13 @@
         <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8959,10 +8953,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9071,10 +9065,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9185,14 +9179,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9214,10 +9208,10 @@
         <v>95</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>98</v>
@@ -9272,7 +9266,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9301,10 +9295,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9330,14 +9324,14 @@
         <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9386,7 +9380,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9404,7 +9398,7 @@
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
@@ -9415,10 +9409,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9527,10 +9521,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9641,10 +9635,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9670,16 +9664,16 @@
         <v>69</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -9707,10 +9701,10 @@
         <v>163</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -9728,7 +9722,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9746,7 +9740,7 @@
         <v>92</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
@@ -9757,10 +9751,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9783,19 +9777,19 @@
         <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -9820,13 +9814,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -9844,7 +9838,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9859,10 +9853,10 @@
         <v>61</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
@@ -9873,10 +9867,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9902,23 +9896,23 @@
         <v>63</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>38</v>
@@ -9960,7 +9954,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9975,13 +9969,13 @@
         <v>61</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>38</v>
@@ -9989,10 +9983,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10018,13 +10012,13 @@
         <v>145</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10074,7 +10068,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10089,10 +10083,10 @@
         <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>180</v>
@@ -10103,10 +10097,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10132,10 +10126,10 @@
         <v>199</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10186,7 +10180,7 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10201,10 +10195,10 @@
         <v>61</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>205</v>
@@ -10215,10 +10209,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10241,16 +10235,16 @@
         <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10300,7 +10294,7 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10315,13 +10309,13 @@
         <v>61</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>38</v>
@@ -10329,10 +10323,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10355,13 +10349,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10373,7 +10367,7 @@
         <v>38</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>38</v>
@@ -10392,7 +10386,7 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>38</v>
@@ -10410,7 +10404,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>49</v>
@@ -10428,10 +10422,10 @@
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>38</v>
@@ -10439,10 +10433,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10468,14 +10462,14 @@
         <v>199</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10524,7 +10518,7 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -10542,10 +10536,10 @@
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10553,10 +10547,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10579,13 +10573,13 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10636,7 +10630,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10654,7 +10648,7 @@
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
@@ -10665,10 +10659,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10691,19 +10685,19 @@
         <v>38</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -10752,7 +10746,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10767,13 +10761,13 @@
         <v>61</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -610,7 +610,7 @@
     <t>home | work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】</t>
   </si>
   <si>
-    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
+    <t>「接点の目的を特定する。」</t>
   </si>
   <si>
     <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
@@ -624,7 +624,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>「接点の使用。」(Setten no shiyō.)</t>
+    <t>「接点の使用。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-practitioner.xlsx
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -633,7 +633,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -653,7 +653,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Practitioner.telecom.system</t>
@@ -671,7 +671,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>連絡先のための通信フォーム。</t>
+    <t>「連絡先のための通信フォーム。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -730,7 +730,7 @@
     <t>home | work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】</t>
   </si>
   <si>
-    <t>「接点の目的を特定する。」</t>
+    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
   </si>
   <si>
     <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
@@ -744,7 +744,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>「接点の使用。」</t>
+    <t>「接点の使用。」(Setten no shiyō.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
@@ -769,10 +769,10 @@
 </t>
   </si>
   <si>
-    <t>使用の優先順位を指定してください（1が最も優先度が高い）</t>
-  </si>
-  <si>
-    <t>一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。</t>
+    <t>「使用の優先順位を指定してください（1が最も優先度が高い）」</t>
+  </si>
+  <si>
+    <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
   </si>
   <si>
     <t>連絡先の使用順序（1 = 最高）</t>
@@ -788,10 +788,10 @@
 </t>
   </si>
   <si>
-    <t>コンタクトポイントが使用されている時間帯</t>
-  </si>
-  <si>
-    <t>接点が使用されていた/現在使用中である時間期間</t>
+    <t>「コンタクトポイントが使用されている時間帯」</t>
+  </si>
+  <si>
+    <t>「接点が使用されていた/現在使用中である時間期間」</t>
   </si>
   <si>
     <t>連絡先が使用されていた/されている期間</t>
@@ -1120,7 +1120,7 @@
     <t>住所が使用されていた/されている期間。 期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  期間は、時間間隔（経過時間の測定値）には使用されない。</t>
   </si>
   <si>
-    <t>アドレスを履歴上の文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
+    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>Address.period</t>
@@ -1407,7 +1407,7 @@
     <t>Practitioner.qualification.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
